--- a/flashcards/Memcode - VO Römisches Sachenrecht I (JKU, Austria).xlsx
+++ b/flashcards/Memcode - VO Römisches Sachenrecht I (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>Question</t>
   </si>
@@ -19,556 +19,892 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;Was ist ein Generalpfand/Generalhypothek?&lt;/p&gt;&lt;p&gt;Welche Probleme und Sonderregelungen gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;gesamtes Vermögen&lt;/strong&gt; &lt;strong&gt;verpfändet&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Besondere Probleme bei &lt;em&gt;wechselndem Vermögensbestand&lt;/em&gt; (z.B. &lt;strong&gt;Warenlager&lt;/strong&gt;) &lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Vorausverpfändung&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Verfügungsermächtigung zur lastenfreien Veräußerung&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ist mancipatio auch ohne causa wirksam?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Ja&lt;/strong&gt;, sie ist &lt;strong&gt;abstrakt&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Aber: &lt;strong&gt;Berechtigter Vormann &lt;/strong&gt;ist notwendig! &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Sachenrechtliche Folge der Lex Commissoria beim &lt;strong&gt;Verkauf, &lt;/strong&gt;bei&lt;strong&gt; Nichtzahlung &lt;/strong&gt;und beim &lt;strong&gt;Rücktritt&lt;/strong&gt;? &lt;/p&gt;&lt;p&gt;(Mancipatio kann man hier annehmen)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;Verkauf&lt;/em&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Titel &lt;/strong&gt;+ &lt;strong&gt;Modus&lt;/strong&gt; sind &lt;strong&gt;auflösend &lt;/strong&gt;bedingt&lt;/li&gt;&lt;li&gt;&lt;strong&gt;K&lt;/strong&gt; erhält &lt;strong&gt;bonitarisches&lt;/strong&gt; &lt;strong&gt;Eigentum&lt;/strong&gt; per traditio ex iusta causa (Causa: KV)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;aber: &lt;strong&gt;auflösend bedingtes &lt;/strong&gt;bonitarisches &lt;strong&gt;Zwische&lt;/strong&gt;neigentum -&amp;gt; &lt;em&gt;weil LC!&lt;/em&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;K&lt;/strong&gt; erhält via Mancipatio &lt;strong&gt;ziviles Eigentum&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Mancipatio ist &lt;strong&gt;bedingungsfeindlich &lt;/strong&gt;-&amp;gt; das ZE ist &lt;strong&gt;nicht &lt;/strong&gt;auflösend &lt;strong&gt;bedingt&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Nichtzahlung&lt;/em&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Es &lt;strong&gt;ändert&lt;/strong&gt; sich &lt;strong&gt;nichts&lt;/strong&gt;, nur der V wird Rücktrittsberechtigt&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Rücktritt&lt;/em&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;KV &lt;/strong&gt;wird &lt;strong&gt;aufgelöst&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; -&amp;gt; war auflösend bedingt&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;BE &lt;/strong&gt;geht &lt;strong&gt;zurück&lt;/strong&gt; an&lt;strong&gt; V&lt;/strong&gt; -&amp;gt; war auflösend bedingt&lt;/li&gt;&lt;li&gt;&lt;strong&gt;ZE &lt;/strong&gt;bleibt bei&lt;strong&gt; K&lt;/strong&gt; -&amp;gt; war &lt;strong&gt;nicht&lt;/strong&gt; &lt;strong&gt;bedingt&lt;/strong&gt; &lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Ergebnis: &lt;strong&gt;V ist BE&lt;/strong&gt;, &lt;strong&gt;K ist ZE&lt;/strong&gt; ("nacktes Recht", "inhaltslose Rechtshülle"&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Übergabe kurzer Hand (traditio brevi manu)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Sache war schon beim Käufer&lt;/li&gt;&lt;li&gt;z.B.: Mieter kauft die Mietsache vom Vermieter&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Sachenrechtliche Position hat der &lt;strong&gt;Mieter&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Welche der &lt;strong&gt;Vermieter&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Mieter: &lt;strong&gt;Detentor&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Vermieter: &lt;strong&gt;Mittelbarer&lt;/strong&gt; &lt;strong&gt;Besitzer&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Fiducia?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Sicherungsübereignung &lt;/strong&gt;(Treuhandschaft)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gläubiger &lt;/strong&gt;erhält &lt;strong&gt;Eigentum &lt;/strong&gt;am Sicherungsobjekt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bei &lt;strong&gt;res mancipi &lt;/strong&gt;-&amp;gt; &lt;strong&gt;mancipatio &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Bei &lt;strong&gt;Tilgung&lt;/strong&gt;: G muss Sache &lt;strong&gt;rückübereignen&lt;/strong&gt; -&amp;gt;&lt;em&gt; nicht automatisch!&lt;/em&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bei res mancipi -&amp;gt; &lt;strong&gt;remancipatio&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Besitzkonstitut?&lt;/p&gt;&lt;p&gt;Was ist die lat. Bezeichnung? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;em&gt;constitutium possessorium&lt;/em&gt;&lt;/li&gt;&lt;li&gt;Der &lt;strong&gt;Besitz &lt;/strong&gt;bloß &lt;strong&gt;durch Verträge &lt;/strong&gt;begründet (&lt;strong&gt;konstituiert&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;A &lt;strong&gt;verkauft Sache &lt;/strong&gt;an B, &lt;strong&gt;behält &lt;/strong&gt;sie aber als &lt;strong&gt;Entlehner &lt;/strong&gt;oder &lt;strong&gt;Mieter &lt;/strong&gt;weiter.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;A&lt;/strong&gt; wird vom &lt;strong&gt;Besitzer zum Detentor&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;B erwirbt Besitz&lt;/strong&gt; "solo animo" (durch bloße Willensbetätigung, ohne Übergabe)&lt;/li&gt;&lt;li&gt;z.B.:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;E &lt;strong&gt;verkauft Wohnung &lt;/strong&gt;an K und &lt;strong&gt;wohnt &lt;/strong&gt;dann &lt;strong&gt;als Mieter&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;K&lt;/strong&gt; ist dann &lt;strong&gt;mittelbarer&lt;/strong&gt; &lt;strong&gt;Besitzer&lt;/strong&gt; durch den Vertrag -&amp;gt; &lt;strong&gt;Besitzkonstitut&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was kann der Treugeber tun, wenn seine Sache vom Treuhänder verkauft wurde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;kein Anspruch &lt;/strong&gt;gegen &lt;strong&gt;K&lt;/strong&gt;, dieser ist &lt;strong&gt;Eigentümer&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Sehr &lt;strong&gt;gefährlich &lt;/strong&gt;für S -&amp;gt; hat nur &lt;strong&gt;Schuldrechtlichen Anspruch &lt;/strong&gt;&lt;em&gt;gegen G&lt;/em&gt;&lt;strong&gt; aus dem Treuhandvertrag&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie kann der Treugeber (Schuldner) seine Sache vom Treuhänder zurückerhalten nach Tilgung?&lt;/p&gt;&lt;p&gt;Hat er eine r&lt;strong&gt;ei vindicatio&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was kann er tun, wenn der G die Sache nicht mehr hat?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;actio fiduciae &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;keine rei vindicatio&lt;/strong&gt;! G ist durch &lt;strong&gt;mancipatio &lt;/strong&gt;auch ziviler Eigentümer!&lt;/li&gt;&lt;li&gt;G hat Sache nicht mehr: &lt;strong&gt;Schadenersatz klagen&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ist das Eigentum eines Träuhänders (Gläubiger) bei fiducia beschränkt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja,durch die Verpflichtung zur Rückübereignung nach Tilgung der Schuld.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ist Eigentümer des Pfands bei Besitz- und bei Besitzlosem Pfand?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Dem &lt;strong&gt;Verpfänder&lt;/strong&gt;! Pfand ist nur eine Belastung des Eigentums&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mit welcher Klage kann der Pfandschuldner das Pfand vom Pfandgläubiger herausfordern wenn er Zahlungsfähig ist?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Rückstellung der Pfandsache per&lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; &lt;/strong&gt;&lt;strong style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;actio pigneraticia &lt;/strong&gt;&lt;span style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;in &lt;/span&gt;&lt;em style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;personam&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ab wann ist ein Pfandgläubiger verfügungsermächtigt über die Pfandsache?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Erst, wenn &lt;strong&gt;Schuldner nicht fristgerecht&lt;/strong&gt; zahlt.&lt;/p&gt;&lt;p&gt;In der "Sicherungsphase" darf er nicht verwerten -&amp;gt; fehlende Verfügungsermächtigung&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann ein Pfandgläubiger mit einer actio pigneraticia in rem gegen den Käufer einer pfandbelasteten Sache durchdringen?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ja, Pfandrecht ist dinglich wirkend und damit sogar gegen Eigentümer&lt;/li&gt;&lt;li&gt;Käufer hat aber Eviktionsregress gegen Verkäufer&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mit welcher Klage kann Schadenersatz eines Pfandschuldners gegen einen Pfandgläubiger (z.B.: wegen Diebstahl der Pfandsache) durchgesetzt werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;actio pigneraticia in &lt;em&gt;personam&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Kompensation im Pfandrecht?&lt;/p&gt;&lt;p&gt;Was ist die Folge?&lt;/p&gt;&lt;p&gt;Wann kann sie z.B. vorkommen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Kommt es zu &lt;strong&gt;übereinstimmenden gleichartigen&lt;/strong&gt; &lt;strong&gt;Forderungen &lt;/strong&gt;der beiden Seiten, so werden diese &lt;strong&gt;Aufgerechnet &lt;/strong&gt;und &lt;strong&gt;beide Schulden erlöschen&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Folge: &lt;strong&gt;Pfandrecht&lt;/strong&gt; &lt;strong&gt;erlischt&lt;/strong&gt;, weil &lt;strong&gt;Akzessoritätsprinzip&lt;/strong&gt;: Erlischt die Schuld, erlischt das Pfandrecht&lt;/li&gt;&lt;li&gt;Beispiel: Schadenersatzforderung des S ist gleich hoch wie Restforderung G&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wofür wird die actio pigneraticia in &lt;strong&gt;personam &lt;/strong&gt;eingesetzt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Ersatzpfand &lt;/strong&gt;G gegen S&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Rückgabe &lt;/strong&gt;S gegen G (nach Tilgung)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Schadenersatz &lt;/strong&gt;bei Verlust/Beschädigung/pflichtwidrigem Verkauf S gegen G&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Superfluum &lt;/strong&gt;S gegen G (Mehrwert bei Verwertung durch G)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wofür wird die actio pigneraticia in &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(56, 190, 155);"&gt;rem &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;eingesetzt?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;G gegen alle (auch Eigentümer): Herausgabe&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Folge, wenn ein Eigentümer oder Besitzer auf einem pfandbelasteten Grund baut?&lt;/p&gt;&lt;p&gt;Welche &lt;strong&gt;Voraussetzung&lt;/strong&gt; hat ein &lt;strong&gt;Besitzer &lt;/strong&gt;für die Durchsetzung der Folge?&lt;/p&gt;&lt;p&gt;Ist die Situation anders, wenn der Grund beim Verpfänden schon bebaut war, das Gebäude aber abbrannte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;superficiese solo cedit&lt;/strong&gt;: &lt;strong&gt;Haus &lt;/strong&gt;fällt in &lt;strong&gt;Eigentum &lt;/strong&gt;und &lt;strong&gt;auch &lt;/strong&gt;vom &lt;strong&gt;Pfandrecht &lt;/strong&gt;betroffen&lt;/li&gt;&lt;li&gt;Aber: &lt;strong&gt;Wert &lt;/strong&gt;der &lt;strong&gt;Pfandsicherheit gestiegen&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Retentionsrecht&lt;/strong&gt;/&lt;strong&gt;exceptio doli &lt;/strong&gt;gegen Pfandgläubiger -&amp;gt; über &lt;strong&gt;Summe &lt;/strong&gt;der &lt;strong&gt;Wertsteigerung&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Voraussetzung für Besitzer: &lt;strong&gt;gutgläubiger &lt;/strong&gt;Besitz&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gebäude abgebrannt&lt;/strong&gt;: &lt;strong&gt;Keine Änderung&lt;/strong&gt;. Durch Abbrennen Wertverringerung der Pfandsicherheit, &lt;strong&gt;Retentionsrecht von Steigerung &lt;em&gt;seit abbrennen&lt;/em&gt;. &lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Folge wenn S eine Sache verpfändet die nicht in seinem Eigentum ist?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Verpfändung&lt;/strong&gt; (Verfügungsgeschäft) &lt;strong&gt;ungültig&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Pfandvertrag &lt;/strong&gt;(Verpflichtungsgeschäft) aber &lt;strong&gt;gültig&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;-&amp;gt; &lt;strong&gt;Ersatzpfand &lt;/strong&gt;klagen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wie kann es zustande kommen, dass sich 2 Pfandgläubiger ein Pfandrecht an der Sache im &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;gleichen Rang &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;teilen?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ausgangsituation&lt;/li&gt;&lt;li class="ql-indent-1"&gt;EB verpfändet an PFG 1&lt;/li&gt;&lt;li class="ql-indent-1"&gt;EB verkauft an K&lt;/li&gt;&lt;li class="ql-indent-1"&gt;K verpfändet an PFG 2&lt;/li&gt;&lt;li&gt;E vererbt 50:50 an EB und K&lt;/li&gt;&lt;li class="ql-indent-1"&gt;EB -&amp;gt; PFG1 heilt halb (weil EB 50% gehören)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;EB -&amp;gt; K heilt. K wird Eigentümer (50% von E, 50% von EB)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;K -&amp;gt; PFG2 heilt halb (weil 50% schon an PFG1 verpfändet sind)&lt;/li&gt;&lt;li&gt;PFG1 und PFG2 je 50%, aber beide im ersten Rang&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man eine Teilheilung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Teil&lt;strong&gt;kovaleszenz&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was passiert, wenn ein Geschäft über ein Pfandrecht heilt (z.B.: durch Erbe), die Sache aber schon verpfändet ist? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Pfandrecht des PFG2 heilt, allerdings ist er im Rang nach dem PFG1 -&amp;gt; &lt;strong&gt;Mehrfachverpfändung&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer kann die Pfandsache verwerten, wenn es mehrere PFG in mehreren Rängen gibt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;nur der im &lt;strong&gt;ersten Rang&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;zweiter &lt;/strong&gt;Rang kann &lt;strong&gt;erst &lt;/strong&gt;verwerten, &lt;strong&gt;wenn &lt;/strong&gt;er in ersten &lt;strong&gt;aufrückt &lt;/strong&gt;(also das vorranginge Pfandreccht erlischt)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was kann ein PFG2 im 2. Rang tun, wenn seine Forderung vor der im 1. Rang fällig ist und S nicht bezahlen kann?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;kein Verwertungsrecht&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;aber: hat &lt;strong&gt;verpfändete&lt;/strong&gt; Sache &lt;strong&gt;genug Wert&lt;/strong&gt;, kann er &lt;strong&gt;PFG1 &lt;/strong&gt;die &lt;strong&gt;Schuld bezahlen&lt;/strong&gt; (also die &lt;strong&gt;fremde &lt;/strong&gt;Schuld)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;dafür hat er dann &lt;strong&gt;Aufwandsersatzanspruch &lt;/strong&gt;per &lt;strong&gt;Klage aus Geschäftsführung ohne Auftrag&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Erster Rang erlischt&lt;/strong&gt; -&amp;gt; PFG2 kann &lt;strong&gt;Forderung &lt;/strong&gt;+ &lt;strong&gt;Aufwandsersatzanspruch aus Pfandwert &lt;/strong&gt;befriedigen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie werden neu erworbene Sachen bei einem Generalpfand behandelt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Vorauspfändung&lt;/strong&gt; (besonderen Vereinbarung)&lt;/li&gt;&lt;li&gt;Vom &lt;strong&gt;Pfandrecht &lt;/strong&gt;erst &lt;strong&gt;im Zeitpunkt des Eigentumerwerbs &lt;/strong&gt;des S betroffen -&amp;gt; Sache muss ja &lt;strong&gt;in bonis&lt;/strong&gt; ein&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie werden verkaufte Sachen bei einem Generalpfand behandelt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;z.B.: Warenlager verpfänden wäre sinnlos, wenn Sachen nicht lastenfrei verkauft werden könnten (sonst kauft niemand)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Verfügungsermächtigung zur lastenfreien Veräußerung&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;PFG ermächtigt S über sein Pfandrecht rechtsaufhebend zu verfügen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Käufer kann Sache lastenfrei erwerben&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Verpflichtungsgeschäft?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Iusta Causa = Erwerbsgrund&lt;/li&gt;&lt;li&gt;Der V schuldet dem K nur die Verschaffung des ungestörten Besitzes (Rechtsposition wird dadurch nicht geändert)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Verfügungsgeschäft?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ämderung der Rechtsposition &lt;/li&gt;&lt;li&gt;Unmittelbar Rechtsübertragend. Es wandern die Positionen nur wirksam mit der Berechtigung des Verfügenden.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Besitz&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;faktische Sachherrschaft, verbunden mit &lt;strong&gt;Herrschaftswillen &lt;/strong&gt;(Wille die Sache für sich selbst zu behalten, auch in Zukunft)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eigentum&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Umfassendes, grundsätzlich unbeschränktes Herrschaftsrecht an einer Sache&lt;/li&gt;&lt;li&gt;Nutzung, Vernichtung, Verfügung über die Sache und Ausschließung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Innehabung/Detention (Inhaber/Detentor)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;bloße Innehabung, &lt;strong&gt;kein&lt;/strong&gt; Eigenbesitzwille (Mieter, Pächter, ...)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In welche zwei Schienen kann das Schuldrecht geteilt werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Vertragliches Schuldrecht&lt;/li&gt;&lt;li&gt;Außervertragliches Schuldrecht&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Delikt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Rechtsgrundlose Leistungen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bereicherungsrecht&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Geschäftsführung ohne Auftrag (z.B.: Auto  eines dritten aus der Donau retten oder sogar auf Kosten retten Lassen)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Wurzelmängel?&lt;/p&gt;&lt;p&gt;Welche Arten gibt es? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kein Vertrag kommt zustande!&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Dissens&lt;/li&gt;&lt;li&gt;Irrtum&lt;/li&gt;&lt;li&gt;Anfängliche rechtliche (z.B.: Titus ist gar kein Sklave) oder faktische (z.B.: Titus ist bereits Tot) Unmöglichkeit zum Zeitpunkt des Entstehens&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Arten von Leistungsstörungen gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nichterfüllung&lt;/li&gt;&lt;li&gt;Schlechterfüllung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Arten von Störfällen gibt es bei Verträgen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wurzelmängel&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;: Scheitern des Vertragsabschlusses&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Leistungsstörungen&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;: Störfälle in der Vertragsabwicklung&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Arten der Nichterfüllung eines Vertrages gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Endgültiges Ausbleiben der Leistung&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Nachträgliche &lt;/strong&gt;(nach Vertragsabschluss) &lt;strong&gt;Unmöglichkeit &lt;/strong&gt;der Leistung (Sklave stirbt zwischen Vertragsabschluss und Übergabe)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Verzug&lt;/strong&gt;: Leistung möglich, bleibt aber aus&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Schlechterfüllung eines Vertrages bzw. welche Arten der Mängel gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Sachmängel&lt;/strong&gt;: liegt vor, wenn die gewöhnlich vorausgesetzten oder bedungenen Eigenschaften fehlen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Rechtsmängel&lt;/strong&gt;: Verkäufer verkauft fremde, pfandbelastete, servitutsbelastete Sache&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Irrtum vs Dissens?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Irrtum: Vertragsvorstellungen stimmen zwar unter den Vertragsparteien überein, aber &lt;strong&gt;nicht mit der Realität&lt;/strong&gt;. &lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Dissens&lt;/span&gt;: Vertragsvorstellungen stimmen &lt;strong&gt;zwischen den Vertragsparteien&lt;/strong&gt; nicht übrein (Sie sprechen von unterschiedlichen Sklaven)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der quiritische Eigentümer?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ziviler Eigentümer&lt;/li&gt;&lt;li&gt;Eigentümer nach dem &lt;strong&gt;ius civile&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der bonitarische Eigentümer?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;prätorischer Eigentümer&lt;/li&gt;&lt;li&gt;vom &lt;strong&gt;Prätor geschaffenes &lt;/strong&gt;Eigentum&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Eigentum nach vollem Recht (dominium pleno iure)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Quiritisches Eigentum + Bonitarisches Eigentum&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist für derivativen Eigentumserwerb notwendig?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verpflichtungsgeschäft (&lt;strong&gt;vom berechtigten Vormann&lt;/strong&gt;) + Verfügungsgeschäft&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist originärer Eigentumserwerb?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beim Erwerber entsteht das Recht neu (Ersitzung, Schatzfund, Vermengung, Verarbeitung, ... )&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Dereliktion?&lt;/p&gt;&lt;p&gt;Was ist die Folge?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der Eigentümer gibt die Sachherrschaft auf, weil er sie nicht mehr behalten will&lt;/li&gt;&lt;li&gt;Er verliert Besitz und Eigentum&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Occupatio?&lt;/p&gt;&lt;p&gt;Was ist die Folge?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Aneignung herrenloser sachen (Wichtig: &lt;strong&gt;Aneignungsabsicht&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;Erlangen von Besitz und Eigentum&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Usucapio?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;= Ersitzung&lt;/p&gt;&lt;p&gt;Erweb zivilen Eigentums durch fortgesetzte qualifizierte Besitzausübung.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ist die Aneignungsabsicht von derelinquierten Sachen furtum (Diebstahl)?&lt;/p&gt;&lt;p&gt;Von verlorenen Sachen?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nein, ist nach Dereliktion ohne Eigentümer&lt;/li&gt;&lt;li&gt;Von verlorenen Sachen: Ja! Redlicher Finder müsste Eigentümer ausfindig machen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Verlust / Verlorene Sache?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Besitz geht verloren, aber Eigentum bleibt aufrecht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie verhalten sich Occupatio und Usucapio zueinander?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Occupatio gibt Finder prätorisches (&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;bonitarisches&lt;/span&gt;) Eigentum&lt;/li&gt;&lt;li&gt;Usucapio nach Ersitzung auch ziviles (&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;quiritisches) &lt;/span&gt;Eigentum &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Mancipatio?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Libralakt vor 5 Zeugen bei der Eigentumserwerber die Eigentumsbehauptung aufstellt -&amp;gt; Überträgt Eigentum und andere Herrschaftsrechte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Traditio?&lt;/p&gt;&lt;p&gt;Was kann sie Übertragen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Formlose Übergabe&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Eigentum, Besitz, Detention&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In iure cessio&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Scheinprozess, der &lt;strong&gt;legis actio sacramento in rem&lt;/strong&gt; nachgebildet ist.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was bedeutet Miteigentum? &lt;/p&gt;&lt;p&gt;Was ist die Auswirkung auf das Recht der Einzelnen?&lt;/p&gt;&lt;p&gt;Welche Unterscheidung gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nicht die Sache körperlich ist geteilt, sondern das Recht an der Sache.&lt;/li&gt;&lt;li&gt;Das Recht jedes Einzelnen ist durch das Recht der anderen beschränkt.&lt;/li&gt;&lt;li&gt;Arten:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Miteigentum nach Quoten&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gesamthandeigentum&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Miteigentum nach Quoten?&lt;/p&gt;&lt;p&gt;Was bedeutet es für Verfügungsgeschäfte über Anteile und über das Ganze?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Jeder Einzelne kann über seinen Anteil frei verfügen.&lt;/li&gt;&lt;li&gt;Verfügungsgeschäfte über Anteil: von jedem Miteigentümer&lt;/li&gt;&lt;li&gt;Über das Ganze: nur durch Zusammenwirkung aller Miteigentümer&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Was ist der lateinische Beriff für die Klage des Miteigentümers?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Vindicatio Pro Parte&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Gesamthandeigentum?&lt;/p&gt;&lt;p&gt;Was bedeutet es für Verfügungsgeschäfte über Anteile und über das Ganze?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Keine frei verfügbaren Anteile der einzelnen Miteigentümer&lt;/li&gt;&lt;li&gt;Verfügungsgeschäfte über Anteile sind nicht möglich&lt;/li&gt;&lt;li&gt;Über das ganze: Können von jedem Einzeln alleine wirksam vorgenommen werden (Vertrauensprinzip zwischen den Erben)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Sachenrechte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verleihen dem Berechtigten unmittelbare Herrschafts&lt;strong&gt;befugnis&lt;/strong&gt; über eine Sache&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Rechte an fremden Sachen gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;beschränkte &lt;strong&gt;dingliche &lt;/strong&gt;und &lt;strong&gt;absolute&lt;/strong&gt; Rechte&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Dienstbarkeiten&lt;/li&gt;&lt;li&gt;Pfandrecht&lt;/li&gt;&lt;li&gt;Erbpacht&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was passiert mit rechten an fremden Sachen, wenn die belastete Sache Eigentümer wechselt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Rechte bleiben bestehen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind privatrechts&lt;strong&gt;unfähige&lt;/strong&gt; Sachen?&lt;/p&gt;&lt;p&gt;Welche 3 Arten gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sind kein Gegenstand privater Rechtsgeschäfte&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;res divini iuris&lt;/strong&gt;: Sachen göttlichen Rechts (Tempel, Altäre, .. )&lt;/li&gt;&lt;li&gt;&lt;strong&gt;res communes omnium&lt;/strong&gt;:  zum Gemeingebrauch (Luft, fließende Wasser, Meer und Ufer)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;res publicae&lt;/strong&gt;:  öffentliche Sachen die jedermann in üblicher Weise gebrauchen darf (öffentliche Straßen, Theater, Bäder, ... )&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind privatrechts&lt;strong&gt;fähige &lt;/strong&gt;Sachen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gegenstände privater Rechtsgeschäfte&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;res mancipi&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was sind &lt;strong&gt;res nec mancipi&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;res mancipi&lt;/strong&gt;: werden förmlich durch mancipatio oder in iure cessio übereignet (Grundstücke, Sklaven, Großvieh, ... )&lt;/li&gt;&lt;li&gt;&lt;strong&gt;res nec mancipi&lt;/strong&gt;: formlos übereignet (Geld, übrige Sachen)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;res&lt;/strong&gt; &lt;strong&gt;mobiles&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was sind &lt;strong&gt;res immobiles&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was sind rechtliche Unterschiede?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;res mobiles&lt;/strong&gt;: bewegliche Sachen (können ohne Verletzung der Substanz versetzt werden) &lt;/li&gt;&lt;li&gt;&lt;strong&gt;res mobiles&lt;/strong&gt;: unbewegliche Sachen (Grundstücke, ... )&lt;/li&gt;&lt;li&gt;Geringe Unterschiede, &lt;strong&gt;Ersitzungsfrist kürzer &lt;/strong&gt;bei res mobiles.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;vertretbare &lt;/strong&gt;Sachen?&lt;/p&gt;&lt;p&gt;Was sind &lt;strong&gt;unvertretbare &lt;/strong&gt;Sachen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Vertretbar&lt;/strong&gt;: Nach Maß, Zahl, Gewicht bestimmbar (Ziegel, Geld, Getreide, ... )&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Unvertretbar&lt;/strong&gt;: Individuelle Merkmale (Sklave Titius, Kunstwerk, ... )&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;verbrauchbare &lt;/strong&gt;Sachen? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Werden durch &lt;strong&gt;bestimmungsmäßigen Gebrauch &lt;/strong&gt;verbraucht&lt;/li&gt;&lt;li&gt;Verbrauch muss kurzfristig erfolgen (Lebensmittel, Wein, Brennstoff) nicht über lange Zeit.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;unteilbare &lt;/strong&gt;Sachen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Können &lt;strong&gt;nicht ohne Untergang geteilt &lt;/strong&gt;werden (Sklaven, Tiere, Kunstwerke)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Einheitssachen?&lt;/p&gt;&lt;p&gt;Was sind zusammengesetzte Sachen? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Einheitssache&lt;/strong&gt;: Ihre Bestandteile sind nicht sonderrechtsfähig (gefärbter Stoff) &lt;/li&gt;&lt;li&gt;&lt;strong&gt;Zusammengesetzte &lt;/strong&gt;Sache: Man kann zwischen den Rechten an der Sache und den Teilen unterscheiden (Schiff, Kasten, Haus) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Zubehör?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bewegliche Sachen, welche für die&lt;strong&gt; Zwecke der Hauptsache bestimmt&lt;/strong&gt; sind ( Vorräte zum Heizen )&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Arten von &lt;strong&gt;fructus &lt;/strong&gt;gibt es?&lt;/p&gt;&lt;p&gt;Wie Verhalten sie sich rechtlich?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;fructus&lt;/strong&gt; &lt;strong&gt;naturales &lt;/strong&gt;(Früchte): werden durch Bewirtschaftung aus Muttersache (Baum, Tier) gewonnen (Obst, Getreide, Jungtier)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;fructus&lt;/strong&gt; &lt;strong&gt;ziviles&lt;/strong&gt;: Erträge aus Vermietung oder Verpachtung&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Bis zur Trennung&lt;/strong&gt; von Muttersache sind sie deren Bestandteil, &lt;strong&gt;dann selbständige&lt;/strong&gt; Sachen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;Elastizität des Eigentums&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Freiwillige Dispositionen &lt;/strong&gt;des Eigentümers &lt;strong&gt;beschränken &lt;/strong&gt;das &lt;strong&gt;Eigentum vorübergehend &lt;/strong&gt;(Verfügungen, beschränkt dingliches Recht), fällt die Beschränkung weg erlangt er das Eigentum wieder im vollen Umfang.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;Possessio&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Woraus besteht es im &lt;strong&gt;ius civile&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Besitz&lt;/li&gt;&lt;li&gt;ius civile: corpus + animus possidendi + iusta causa&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;corpus&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die tatsächliche Gewalt über eine Sache&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;animus possidendi&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Ist er bei Miete gegeben? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der Wille die Sache zu behalten &lt;/li&gt;&lt;li&gt;Bei Miete nicht gegeben, da er &lt;strong&gt;permanent &lt;/strong&gt;sein muss.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;iusta&lt;/strong&gt; &lt;strong&gt;causa&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ein Erwerbsgrund, der einen Eigentumserwerb rechtfertigt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;rei vindicatio&lt;/strong&gt;? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eigentumsklage&lt;/li&gt;&lt;li&gt;&lt;strong&gt;nicht besitzender Kläger&lt;/strong&gt; behauptet &lt;strong&gt;quiritischer Eigentümer &lt;/strong&gt;zu sein und &lt;strong&gt;begehrt&lt;/strong&gt; die &lt;strong&gt;Herausgabe &lt;/strong&gt;seiner Sache&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;actio negatoria&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheitsklage&lt;/li&gt;&lt;li&gt;Eigentümer &lt;strong&gt;fordert&lt;/strong&gt; &lt;strong&gt;die Freigabe &lt;/strong&gt;seines Eigentums von einer &lt;strong&gt;behaupteten&lt;/strong&gt; &lt;strong&gt;Einschränkung &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Servitut&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;, &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Fruchtgenussrecht&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)  &lt;/span&gt;durch einen dritten &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;actio publiciana&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Ersitzungsbesitzer &lt;/strong&gt;dem eine Sache &lt;strong&gt;ex iusta causa&lt;/strong&gt; &lt;strong&gt;tradiert &lt;/strong&gt;wurde, und der &lt;strong&gt;nach der&lt;/strong&gt; &lt;strong&gt;Ersitzungsfrist Eigentümer &lt;/strong&gt;geworden wäre, &lt;strong&gt;klagt &lt;/strong&gt;nach Besitzverlust den (schlechter berechtigten) Besitzer auf &lt;strong&gt;Herausgabe&lt;/strong&gt; der Sache.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;interdicta&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Dienen zur &lt;strong&gt;Erhaltung des Besitzes bei Störung &lt;/strong&gt;sowie zur &lt;strong&gt;Wiedererlangung&lt;/strong&gt; &lt;strong&gt;des&lt;/strong&gt; &lt;strong&gt;entzogenen Besitzes&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Der &lt;strong&gt;Praetor untersagt&lt;/strong&gt; (interdictum) &lt;strong&gt;Gewaltanwendung &lt;/strong&gt;durch den Beklagten (wenn dieser &lt;strong&gt;in&lt;/strong&gt;ustus possessor ist)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;interdictum&lt;/strong&gt; &lt;strong&gt;uti possidetis&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Schützt den Besitz von &lt;strong&gt;Grundstücken&lt;/strong&gt; vor Störungen&lt;/li&gt;&lt;li&gt;Es gewinnt der &lt;strong&gt;iustus &lt;/strong&gt;possessor (verurteilt wird der &lt;strong&gt;in&lt;/strong&gt;iustus possessor)&lt;/li&gt;&lt;li&gt;Haben &lt;strong&gt;beide Besitz gestört&lt;/strong&gt;, ist der iustus possessor, dessen &lt;strong&gt;Besitz zuletzt fehlerfrei&lt;/strong&gt; war (= wer &lt;strong&gt;als erster &lt;/strong&gt;vom anderen &lt;strong&gt;gestört &lt;/strong&gt;wurde)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist&lt;strong&gt; interdictum utrubi&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Schützt den Besitz von &lt;strong&gt;beweglichen Sachen&lt;/strong&gt; vor Störungen&lt;/li&gt;&lt;li&gt;Es gewinnt, wer innerhalb &lt;strong&gt;des letzten Jahres den längeren fehlerfreien Besitz &lt;/strong&gt;hatte (Besitzzeit eines Vorbesitzers mit derivativem Erwerb von iustus possessor wird angerechnet)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Voraussetzungen für usucapio?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;possessio&lt;/strong&gt;: fehlerfreier Besitz (kein &lt;strong&gt;vi&lt;/strong&gt;, &lt;strong&gt;clam &lt;/strong&gt;oder &lt;strong&gt;precarium&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;res habilis&lt;/strong&gt;: ersitzungsfähige Sachen (&lt;strong&gt;res mancipi &lt;/strong&gt;oder &lt;strong&gt;res nec&lt;/strong&gt; &lt;strong&gt;mancipi&lt;/strong&gt;, keine durch furtum erworbenen)&lt;/li&gt;&lt;li&gt;Erwerb durch &lt;strong&gt;traditio ex iusta causa &lt;/strong&gt;maßgeblichen Erwerbstitel&lt;/li&gt;&lt;li&gt;&lt;strong&gt;bona fides&lt;/strong&gt;: guter Glauben, dass der Vormann Eigentümer/verfügungsbefugt ist.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;tempus&lt;/strong&gt;: Ersitzungsfrist, res mobiles 1 Jahr, resimmobiles 2 Jahre.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was passiert bei (temporärem) Besitzverlust bei usucapio?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Unterbricht die Ersitzung&lt;/li&gt;&lt;li&gt;Ersitzung beginnt bei Wiedererlangen neu, wenn der Besitzer weiterhin redlich ist.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Grunddienstbarkeiten (Realservitut/Prädialservitut)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Berechtigen den Eigentümer des herrschenden Grundstücks zur &lt;strong&gt;beschränkten Nutzung &lt;/strong&gt;des dienenden (belasteten) Grundstücks&lt;/li&gt;&lt;li&gt;Der Eigentümer des dienenden Grundstücks muss etwas &lt;strong&gt;dulden &lt;/strong&gt;oder &lt;strong&gt;unterlassen&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;iura praediorum rusticorum&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Welche gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;ländliche &lt;/strong&gt;Servituten:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;iter (Fußweg)&lt;/li&gt;&lt;li&gt;via (Fahrweg)&lt;/li&gt;&lt;li&gt;actus (Viehtrieb)&lt;/li&gt;&lt;li&gt;aquae ductus (Wasserleitung)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong style="background-color: rgba(0, 0, 0, 0); color: rgb(56, 190, 155);"&gt;iura praediorum urbanorum&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Welche gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Gebäudeservituten &lt;/strong&gt;in den &lt;strong&gt;Städten&lt;/strong&gt;:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Regenwasser auf Nachbargrundstück abtropfen lassen&lt;/li&gt;&lt;li&gt;Balken in eine fremde Wand einfügen&lt;/li&gt;&lt;li&gt;eigenes Gebäude auf bauliche Einrichtungen des Nachbargebäudes zu stützen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 7 Servitutengrundsätze?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der Eigentümer des belasteten Grundstücks muss etwas dulden oder unterlassen, Servitut erfordert &lt;strong&gt;nie positives Tun&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Servitut ist &lt;strong&gt;schonend&lt;/strong&gt; auszuüben&lt;/li&gt;&lt;li&gt;&lt;strong&gt;utilitas&lt;/strong&gt;: Das dienende muss dem herrschenden Grundstück &lt;strong&gt;nützlich &lt;/strong&gt;sein (vorteilhaftere oder bequemere Benützung ermöglichen) &lt;/li&gt;&lt;li&gt;&lt;strong&gt;vicinitas: &lt;/strong&gt;Grundstücke müssen benachbart sein&lt;/li&gt;&lt;li&gt;&lt;strong&gt;perpetua causa&lt;/strong&gt;: Ausübung des Servituts muss zeitlich unbegrenzt möglich sein&lt;/li&gt;&lt;li&gt;Servituten können &lt;strong&gt;nicht am eigenen Grundstück &lt;/strong&gt;bestehen, sind an Eigentum am herrschenden Grundstück gebunden&lt;/li&gt;&lt;li&gt;Servituten sind &lt;strong&gt;unteilbar&lt;/strong&gt;, Belastung bedarf Mitwirkung aller Miteigentümer. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was passiert, wenn ein für ein Servitut herrschendes Grundstück geteilt wird?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das &lt;strong&gt;Servitut &lt;/strong&gt;bezüglich dem belasteten Grundstück &lt;strong&gt;besteht zugunsten aller Teile &lt;/strong&gt;des herrschenden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Personendienstbarkeiten (Personalservituten)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eine &lt;strong&gt;Person &lt;/strong&gt;(also nicht der Eigentümer eines herrschenden Grundstücks) ist &lt;strong&gt;berechtigt&lt;/strong&gt;, eine fremde Sache zu gebrauchen. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche 3 Arten von Personalservituten gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;ususfructus&lt;/strong&gt;: &lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Recht, fremde Sachen &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;unter Wahrung&lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;der&lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Substanz &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;zu benützen und &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Früchte&lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;zu ziehen.&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Kann nicht veräußert oder vererbt werden&lt;/li&gt;&lt;li&gt;&lt;strong&gt;usus&lt;/strong&gt;: das dingliche Gebrauchsrecht berechtigt zu weniger als ein ususfructus.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;habitatio&lt;/strong&gt;: dingliches Wohnrecht, Sonderform von usus&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;actio confessoria&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der &lt;strong&gt;Nutzungsberechtigte klagt &lt;/strong&gt;den Eigentümer (oder andere Besitzer) um die &lt;strong&gt;Nutzung ungestört und&lt;/strong&gt; &lt;strong&gt;ohne Zustimmung &lt;/strong&gt;des Eigentümers vornehmen zu können.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Umkehr der actio negatoria&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Was ist &lt;/span&gt;&lt;strong style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;possessorischer &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Schutz? &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Schützt den Besitz &lt;/strong&gt;und folgt aus dem &lt;strong&gt;faktischen Besitz&lt;/strong&gt;. &lt;/li&gt;&lt;li&gt;Er ist &lt;strong&gt;unabhängig &lt;/strong&gt;davon ob der Besitzer ein &lt;strong&gt;Recht &lt;/strong&gt;zum Besitz hat.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Erfordert &lt;strong&gt;petitorischer &lt;/strong&gt;Schutz den Beweis des Rechts (z.B.: Eigentumsbeweis)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, da sich dieser Schutz, anders als der possessorische vom Recht ableitet, dieses muss also auch bewiesen werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;petitorischer &lt;/strong&gt;Schutz?&lt;/p&gt;&lt;p&gt;Welche Klageform bildet die Basis für den petitorischen Schutz?&lt;/p&gt;&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Ist er stärker oder schwächer als possessorischer Schutz?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Schützt den Besitz&lt;/strong&gt; und leitet sich aus dem &lt;strong&gt;Recht zum Besitz &lt;/strong&gt;ab.&lt;/li&gt;&lt;li&gt;Gehen zurück auf die actio publiciana&lt;/li&gt;&lt;li&gt;Verdrängen possessorische Besitzansprüche&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird &lt;strong&gt;possessorischer &lt;/strong&gt;Schutz durchgesetzt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Durch ein Interdikt des Praetors&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das Sicherungseigentum im Pfandrecht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Mittel der Kreditsicherung&lt;/li&gt;&lt;li&gt;Der creditor (Gläuber, Kreditgeber) kann sich aus einer &lt;strong&gt;bestimmten Sache vor allen anderen Gläubigern des Schuldners befriedigen&lt;/strong&gt;, wenn die Verbindlichkeit nicht erfüllt wird.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;fehlerfreier &lt;/strong&gt;Besitz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;nec &lt;strong&gt;vi&lt;/strong&gt;: nicht mit Gewalt&lt;/li&gt;&lt;li&gt;nec &lt;strong&gt;clam&lt;/strong&gt;: nicht heimlich (gestohlen)&lt;/li&gt;&lt;li&gt;nec &lt;strong&gt;precario&lt;/strong&gt;: Nicht durch Bittleihe erlangt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;actio empti&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Klage des Käufers auf herausgabe der gekauften Sache&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;exceptio doli&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einrede der Arglist&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;exceptio rei vendita et tradita&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einrede der verkauften und übergebenen Sache&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer kann eine Sache rechtlich besser oder schlechter stellen (mit Servitut belasten bzw. über ein belastetes Grundstück herrschen lassen)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nur der Eigentümer, z.B. Ersitzungs&lt;strong&gt;besitzer&lt;/strong&gt; kann nicht!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was bedeutet &lt;strong&gt;pleno iure dominus&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eigentümer mit vollem Recht (quiritisch + bonitarisch)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtsfolge, wenn eine &lt;strong&gt;nachträgliche Unmöglichkeit &lt;/strong&gt;vom &lt;strong&gt;Schuldner herbeigeführt &lt;/strong&gt;wird (Auto vor Übergabe an Käufer an die Wand gefahren)?&lt;/p&gt;&lt;p&gt;Wie nennt man diese nachträgliche Unmöglichkeit noch?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der Schuldner haftet: Schadenersatz!&lt;/li&gt;&lt;li&gt;Eine vom Schuldner zu &lt;strong&gt;vertretende &lt;/strong&gt;nachträgliche Unmöglichkeit&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Rechtsfolge, wenn eine &lt;strong&gt;nachträgliche Unmöglichkeit&lt;/strong&gt; zufällig herbeigeführt wird?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Schuldner wird frei von der Vertragspflicht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist Rechtsbesitz?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Possessio an einem Recht, das einer &lt;strong&gt;dauernden Ausübung möglich&lt;/strong&gt; ist, wie eine Servitut.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann ein Scheinservitutsberechtigter Rechtsbesitz an der Servitut haben? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, wenn er die Servitut &lt;strong&gt;ohne Eingriff&lt;/strong&gt; erlangt hat:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;nec vi, nec clam, nec precario&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Wichtig ist also die gutgläubigkeit!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann &lt;strong&gt;possessorischer &lt;/strong&gt;Schutz auch für &lt;strong&gt;Rechtsbesitz &lt;/strong&gt;geltend gemacht werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja - zum Beispiel für eine Servitut&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann ein &lt;strong&gt;Rechtsbesitz &lt;/strong&gt;an einer Servitut auch &lt;strong&gt;gegenüber dem störenden Eigentümer &lt;/strong&gt;des dienenden Grundstücks durchgesetzt werden?&lt;/p&gt;&lt;p&gt;Wenn ja, wie?&lt;/p&gt;&lt;p&gt;Welche Probleme können auftauchen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ja, über den possessorischen Schutz mit einem &lt;strong&gt;Interdikt&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Probleme:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Der Eigentümer kann selbst &lt;strong&gt;possessorisch &lt;/strong&gt;per Interdikt  die Störung seines Grundstücks durch die Ausübung der Servitut verhindern.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Der Eigentümer kann &lt;strong&gt;petitorisch &lt;/strong&gt;per Klage infrage stellen, ob die Servitut überhaupt besteht -&amp;gt; &lt;strong&gt;actio negatoria&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das Interdikt &lt;strong&gt;de&amp;nbsp;itinere&amp;nbsp;actuque&lt;/strong&gt;? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein &lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;possessorische &lt;/strong&gt;&lt;strong&gt;Interdikt &lt;/strong&gt;zur &lt;strong&gt;Verteidigung eines Rechtsbesitzes&lt;/strong&gt; an einem Wegerecht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Aktivlegitimation?&lt;/p&gt;&lt;p&gt;Wer hat es bei der Actio Negatoria?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Das Recht zu klagen.&lt;/li&gt;&lt;li&gt;Der Eigentümer&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine &lt;strong&gt;actio in rem&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was sind Beispiele?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eine Klage zur Durchsetzung eines dinglichen Rechts.&lt;/p&gt;&lt;p&gt;Sie schützt also vor Beeinträchtigung des Rechts.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Actio negatoria&lt;/li&gt;&lt;li&gt;Actio confessoria &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;Eviktion&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Durchsetzung eines Anspruches auf eine Sache, durch eine Person die ein besseres Recht hat, als der Besitzer. &lt;/p&gt;&lt;p&gt;D.h. der Besitzer verliert Rechte an der Sache.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein &lt;strong&gt;Eviktionsregress&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wenn der Käufer einer Sache Rechte an der Sache &lt;strong&gt;durch Eviktion verliert&lt;/strong&gt;, und &lt;strong&gt;der Verkäufer am zugrunde liegenden Rechtsmangel schuld ist,&lt;/strong&gt; so kann der Käufer vom Verkäufer &lt;strong&gt;Rückersatz &lt;/strong&gt;fordern&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;stipulatio duple&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Verkäufer verspricht dem Käufer im Falle eines Recktsmangels der Kaufsache den doppelten Kaufpreis rückzuerstatatten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;lex commissoria&lt;/strong&gt;?&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Rücktrittsvorbehalt bei einem Verkauf&lt;/p&gt;&lt;p&gt;Verkäufer kann von Kreditkauf zurücktreten, wenn Käufer nicht vollständig bezahlt.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Barkauf, was ein Kreditkauf?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Barkauf&lt;/strong&gt;: Sache und volle Bezahlung werden sofort ausgetauscht&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Kreditkauf&lt;/strong&gt;: Sache wird sofort übergeben (&lt;strong&gt;Vorleistung&lt;/strong&gt;), Bezahlung erfolgt später oder in Raten&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist &lt;strong&gt;res&amp;nbsp;inempta&amp;nbsp;esto&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Die&amp;nbsp;Sache&amp;nbsp;soll&amp;nbsp;nicht&amp;nbsp;mehr&amp;nbsp;gekauft&amp;nbsp;sein.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Rücktrittsvorbehalt wurde wirksam gemacht&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Was ist die &lt;strong&gt;actio venditi&lt;/strong&gt;?&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Klage des Verkäufers auf Zahlung des Kaufpreises&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;res&amp;nbsp;inempta&amp;nbsp;esto&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Die&amp;nbsp;Sache&amp;nbsp;soll&amp;nbsp;nicht&amp;nbsp;mehr&amp;nbsp;gekauft&amp;nbsp;sein.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Rücktrittsvorbehalt wurde wirksam gemacht&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;lex commissoria&lt;/strong&gt;?&lt;strong&gt; &lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Der Rücktrittsvorbehalt bei einem Verkauf&lt;/p&gt;&lt;p&gt;Verkäufer kann von Kreditkauf zurücktreten, wenn Käufer nicht vollständig bezahlt.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist ein Barkauf, was ein Kreditkauf?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Barkauf&lt;/strong&gt;: Sache und volle Bezahlung werden sofort ausgetauscht&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Kreditkauf&lt;/strong&gt;: Sache wird sofort übergeben (&lt;strong&gt;Vorleistung&lt;/strong&gt;), Bezahlung erfolgt später oder in Raten&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die &lt;strong&gt;stipulatio duple&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Der Verkäufer verspricht dem Käufer im Falle eines Recktsmangels der Kaufsache den doppelten Kaufpreis rückzuerstatatten&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist eine &lt;strong&gt;Stipulation&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Förmliches&lt;/strong&gt; &lt;strong&gt;mündliches&lt;/strong&gt; &lt;strong&gt;Leistungsversprechen &lt;/strong&gt;des Verkäufers für &lt;strong&gt;Rückersatz&lt;/strong&gt;, falls die Kaufsache Rechtsmängel hat&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist ein &lt;strong&gt;Eviktionsregress&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wenn der Käufer einer Sache Rechte an der Sache &lt;strong&gt;durch Eviktion verliert&lt;/strong&gt;, und &lt;strong&gt;der Verkäufer am zugrunde liegenden Rechtsmangel schuld ist,&lt;/strong&gt; so kann der Käufer vom Verkäufer &lt;strong&gt;Rückersatz &lt;/strong&gt;fordern&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;Eviktion&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Durchsetzung eines Anspruches auf eine Sache, durch eine Person die ein besseres Recht hat, als der Besitzer. &lt;/p&gt;&lt;p&gt;D.h. der Besitzer verliert Rechte an der Sache.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist eine &lt;strong&gt;actio in rem&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was sind Beispiele?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eine Klage zur Durchsetzung eines dinglichen Rechts.&lt;/p&gt;&lt;p&gt;Sie schützt also vor Beeinträchtigung des Rechts.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Actio negatoria&lt;/li&gt;&lt;li&gt;Actio confessoria &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Aktivlegitimation?&lt;/p&gt;&lt;p&gt;Wer hat es bei der Actio Negatoria?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Das Recht zu klagen.&lt;/li&gt;&lt;li&gt;Der Eigentümer&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist das Interdikt &lt;strong&gt;de&amp;nbsp;itinere&amp;nbsp;actuque&lt;/strong&gt;? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ein &lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;possessorische &lt;/strong&gt;&lt;strong&gt;Interdikt &lt;/strong&gt;zur &lt;strong&gt;Verteidigung eines Rechtsbesitzes&lt;/strong&gt; an einem Wegerecht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kann ein &lt;strong&gt;Rechtsbesitz &lt;/strong&gt;an einer Servitut auch &lt;strong&gt;gegenüber dem störenden Eigentümer &lt;/strong&gt;des dienenden Grundstücks durchgesetzt werden?&lt;/p&gt;&lt;p&gt;Wenn ja, wie?&lt;/p&gt;&lt;p&gt;Welche Probleme können auftauchen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ja, über den possessorischen Schutz mit einem &lt;strong&gt;Interdikt&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Probleme:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Der Eigentümer kann selbst &lt;strong&gt;possessorisch &lt;/strong&gt;per Interdikt  die Störung seines Grundstücks durch die Ausübung der Servitut verhindern.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Der Eigentümer kann &lt;strong&gt;petitorisch &lt;/strong&gt;per Klage infrage stellen, ob die Servitut überhaupt besteht -&amp;gt; &lt;strong&gt;actio negatoria&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist ein Verpflichtungsgeschäft?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Iusta Causa = Erwerbsgrund&lt;/li&gt;&lt;li&gt;Der V schuldet dem K nur die Verschaffung des ungestörten Besitzes (Rechtsposition wird dadurch nicht geändert)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist ein Verfügungsgeschäft?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ämderung der Rechtsposition &lt;/li&gt;&lt;li&gt;Unmittelbar Rechtsübertragend. Es wandern die Positionen nur wirksam mit der Berechtigung des Verfügenden.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Besitz&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;faktische Sachherrschaft, verbunden mit &lt;strong&gt;Herrschaftswillen &lt;/strong&gt;(Wille die Sache für sich selbst zu behalten, auch in Zukunft)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eigentum&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Umfassendes, grundsätzlich unbeschränktes Herrschaftsrecht an einer Sache&lt;/li&gt;&lt;li&gt;Nutzung, Vernichtung, Verfügung über die Sache und Ausschließung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Innehabung/Detention (Inhaber/Detentor)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;bloße Innehabung, &lt;strong&gt;kein&lt;/strong&gt; Eigenbesitzwille (Mieter, Pächter, ...)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In welche zwei Schienen kann das Schuldrecht geteilt werden?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Vertragliches Schuldrecht&lt;/li&gt;&lt;li&gt;Außervertragliches Schuldrecht&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Delikt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Rechtsgrundlose Leistungen&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Bereicherungsrecht&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Geschäftsführung ohne Auftrag (z.B.: Auto  eines dritten aus der Donau retten oder sogar auf Kosten retten Lassen)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind Wurzelmängel?&lt;/p&gt;&lt;p&gt;Welche Arten gibt es? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kein Vertrag kommt zustande!&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Dissens&lt;/li&gt;&lt;li&gt;Irrtum&lt;/li&gt;&lt;li&gt;Anfängliche rechtliche (z.B.: Titus ist gar kein Sklave) oder faktische (z.B.: Titus ist bereits Tot) Unmöglichkeit zum Zeitpunkt des Entstehens&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche Arten von Leistungsstörungen gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Nichterfüllung&lt;/li&gt;&lt;li&gt;Schlechterfüllung&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche Arten von Störfällen gibt es bei Verträgen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Wurzelmängel&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;: Scheitern des Vertragsabschlusses&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Leistungsstörungen&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;: Störfälle in der Vertragsabwicklung&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Nichterfüllung eines Vertrages?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Endgültiges Ausbleiben der Leistung&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Nachträgliche &lt;/strong&gt;(nach Vertragsabschluss) &lt;strong&gt;Unmöglichkeit &lt;/strong&gt;der Leistung (Sklave stirbt zwischen Vertragsabschluss und Übergabe)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Verzug&lt;/strong&gt;: Leistung möglich, bleibt aber aus&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Schlechterfüllung eines Vertrages bzw. welche Arten der Mängel gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Sachmängel&lt;/strong&gt;: liegt vor, wenn die gewöhnlich vorausgesetzten oder bedungenen Eigenschaften fehlen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Rechtsmängel&lt;/strong&gt;: Verkäufer verkauft fremde, pfandbelastete, servitutsbelastete Sache&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Irrtum vs Dissens?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Irrtum: Vertragsvorstellungen stimmen zwar unter den Vertragsparteien überein, aber &lt;strong&gt;nicht mit der Realität&lt;/strong&gt;. &lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Dissens&lt;/span&gt;: Vertragsvorstellungen stimmen &lt;strong&gt;zwischen den Vertragsparteien&lt;/strong&gt; nicht übrein (Sie sprechen von unterschiedlichen Sklaven)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist der quiritische Eigentümer?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ziviler Eigentümer&lt;/li&gt;&lt;li&gt;Eigentümer nach dem &lt;strong&gt;ius civile&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist der bonitarische Eigentümer?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;prätorischer Eigentümer&lt;/li&gt;&lt;li&gt;vom &lt;strong&gt;Prätor geschaffenes &lt;/strong&gt;Eigentum&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Eigentum nach vollem Recht (dominium pleno iure)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Quiritisches Eigentum + Bonitarisches Eigentum&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist für derivativen Eigentumserwerb notwendig?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verpflichtungsgeschäft (&lt;strong&gt;vom berechtigten Vormann&lt;/strong&gt;) + Verfügungsgeschäft&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist originärer Eigentumserwerb?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beim Erwerber entsteht das Recht neu (Ersitzung, Schatzfund, Vermengung, Verarbeitung, ... )&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Dereliktion?&lt;/p&gt;&lt;p&gt;Was ist die Folge?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Der Eigentümer gibt die Sachherrschaft auf, weil er sie nicht mehr behalten will&lt;/li&gt;&lt;li&gt;Er verliert Besitz und Eigentum&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Occupatio?&lt;/p&gt;&lt;p&gt;Was ist die Folge?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Aneignung herrenloser sachen (Wichtig: &lt;strong&gt;Aneignungsabsicht&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;Erlangen von Besitz und Eigentum&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Usucapio?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;= Ersitzung&lt;/p&gt;&lt;p&gt;Erweb zivilen Eigentums durch fortgesetzte qualifizierte Besitzausübung.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ist die Aneignungsabsicht von derelinquierten Sachen furtum (Diebstahl)?&lt;/p&gt;&lt;p&gt;Von verlorenen Sachen?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Nein, ist nach Dereliktion ohne Eigentümer&lt;/li&gt;&lt;li&gt;Von verlorenen Sachen: Ja! Redlicher Finder müsste Eigentümer ausfindig machen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Verlust / Verlorene Sache?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Besitz geht verloren, aber Eigentum bleibt aufrecht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie verhalten sich Occupatio und Usucapio zueinander?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Occupatio gibt Finder prätorisches (&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;bonitarisches&lt;/span&gt;) Eigentum&lt;/li&gt;&lt;li&gt;Usucapio nach Ersitzung auch ziviles (&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;quiritisches) &lt;/span&gt;Eigentum &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Mancipatio?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Libralakt vor 5 Zeugen bei der Eigentumserwerber die Eigentumsbehauptung aufstellt -&amp;gt; Überträgt Eigentum und andere Herrschaftsrechte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Traditio?&lt;/p&gt;&lt;p&gt;Was kann sie Übertragen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Formlose Übergabe&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Eigentum, Besitz, Detention&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In iure cessio&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Scheinprozess, der &lt;strong&gt;legis actio sacramento in rem&lt;/strong&gt; nachgebildet ist.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was bedeutet Miteigentum? &lt;/p&gt;&lt;p&gt;Was ist die Auswirkung auf das Recht der Einzelnen?&lt;/p&gt;&lt;p&gt;Welche Unterscheidung gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Nicht die Sache körperlich ist geteilt, sondern das Recht durch die Sache. &lt;/li&gt;&lt;li&gt;Das Recht jedes Einzelnen ist durch das Recht der anderen beschränkt.&lt;/li&gt;&lt;li&gt;Arten:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Miteigentum nach Quoten&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Gesamthandeigentum&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Miteigentum nach Quoten?&lt;/p&gt;&lt;p&gt;Was bedeutet es für Verfügungsgeschäfte über Anteile und über das Ganze?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Jeder Einzelne kann über seinen Anteil frei verfügen.&lt;/li&gt;&lt;li&gt;Verfügungsgeschäfte über Anteil: von jedem Miteigentümer&lt;/li&gt;&lt;li&gt;Über das Ganze: nur durch Zusammenwirkung aller Miteigentümer&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Was ist der lateinische Beriff für die Klage des Miteigentümers?&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Vindicatio Pro Parte&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Gesamthandeigentum?&lt;/p&gt;&lt;p&gt;Was bedeutet es für Verfügungsgeschäfte über Anteile und über das Ganze?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Keine frei verfügbaren Anteile der einzelnen Miteigentümer&lt;/li&gt;&lt;li&gt;Verfügungsgeschäfte über Anteile sind nicht möglich&lt;/li&gt;&lt;li&gt;Über das ganze: Können von jedem Einzeln alleine wirksam vorgenommen werden (Vertrauensprinzip zwischen den Erben)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind Sachenrechte?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verleihen dem Berechtigten unmittelbare Herrschafts&lt;strong&gt;befugnis&lt;/strong&gt; über eine Sache&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche Rechte an fremden Sachen gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;beschränkte &lt;strong&gt;dingliche &lt;/strong&gt;und &lt;strong&gt;absolute&lt;/strong&gt; Rechte&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Dienstbarkeiten&lt;/li&gt;&lt;li&gt;Pfandrecht&lt;/li&gt;&lt;li&gt;Erbpacht&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was passiert mit rechten an fremden Sachen, wenn die belastete Sache Eigentümer wechselt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Rechte bleiben bestehen&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind privatrechts&lt;strong&gt;unfähige&lt;/strong&gt; Sachen?&lt;/p&gt;&lt;p&gt;Welche 3 Arten gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sind kein Gegenstand privater Rechtsgeschäfte&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;res divini iuris&lt;/strong&gt;: Sachen göttlichen Rechts (Tempel, Altäre, .. )&lt;/li&gt;&lt;li&gt;&lt;strong&gt;res communes omnium&lt;/strong&gt;:  zum Gemeingebrauch (Luft, fließende Wasser, Meer und Ufer)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;res publicae&lt;/strong&gt;:  öffentliche Sachen die jedermann in üblicher Weise gebrauchen darf (öffentliche Straßen, Theater, Bäder, ... )&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind privatrechts&lt;strong&gt;fähige &lt;/strong&gt;Sachen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gegenstände privater Rechtsgeschäfte&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;strong&gt;res mancipi&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was sind &lt;strong&gt;res nec mancipi&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;res mancipi&lt;/strong&gt;: werden förmlich durch mancipatio oder in iure cessio übereignet (Grundstücke, Sklaven, Großvieh, ... )&lt;/li&gt;&lt;li&gt;&lt;strong&gt;res nec mancipi&lt;/strong&gt;: formlos übereignet (Geld, übrige Sachen)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;strong&gt;res&lt;/strong&gt; &lt;strong&gt;mobiles&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was sind &lt;strong&gt;res immobiles&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was sind rechtliche Unterschiede?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;res mobiles&lt;/strong&gt;: bewegliche Sachen (können ohne Verletzung der Substanz versetzt werden) &lt;/li&gt;&lt;li&gt;&lt;strong&gt;res mobiles&lt;/strong&gt;: unbewegliche Sachen (Grundstücke, ... )&lt;/li&gt;&lt;li&gt;Geringe Unterschiede, &lt;strong&gt;Ersitzungsfrist kürzer &lt;/strong&gt;bei res mobiles.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;strong&gt;vertretbare &lt;/strong&gt;Sachen?&lt;/p&gt;&lt;p&gt;Was sind &lt;strong&gt;unvertretbare &lt;/strong&gt;Sachen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Vertretbar&lt;/strong&gt;: Nach Maß, Zahl, Gewicht bestimmbar (Ziegel, Geld, Getreide, ... )&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Unvertretbar&lt;/strong&gt;: Individuelle Merkmale (Sklave Titius, Kunstwerk, ... )&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;strong&gt;verbrauchbare &lt;/strong&gt;Sachen? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Werden durch &lt;strong&gt;bestimmungsmäßigen Gebrauch &lt;/strong&gt;verbraucht&lt;/li&gt;&lt;li&gt;Verbrauch muss kurzfristig erfolgen (Lebensmittel, Wein, Brennstoff) nicht über lange Zeit.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;strong&gt;unteilbare &lt;/strong&gt;Sachen?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Können &lt;strong&gt;nicht ohne Untergang geteilt &lt;/strong&gt;werden (Sklaven, Tiere, Kunstwerke)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind Einheitssachen?&lt;/p&gt;&lt;p&gt;Was sind zusammengesetzte Sachen? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Einheitssache&lt;/strong&gt;: Ihre Bestandteile sind nicht sonderrechtsfähig (gefärbter Stoff) &lt;/li&gt;&lt;li&gt;&lt;strong&gt;Zusammengesetzte &lt;/strong&gt;Sache: Man kann zwischen den Rechten an der Sache und den Teilen unterscheiden (Schiff, Kasten, Haus) &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Zubehör?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bewegliche Sachen, welche für die&lt;strong&gt; Zwecke der Hauptsache bestimmt&lt;/strong&gt; sind ( Vorräte zum Heizen )&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche Arten von &lt;strong&gt;fructus &lt;/strong&gt;gibt es?&lt;/p&gt;&lt;p&gt;Wie Verhalten sie sich rechtlich?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;fructus&lt;/strong&gt; &lt;strong&gt;naturales &lt;/strong&gt;(Früchte): werden durch Bewirtschaftung aus Muttersache (Baum, Tier) gewonnen (Obst, Getreide, Jungtier)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;fructus&lt;/strong&gt; &lt;strong&gt;ziviles&lt;/strong&gt;: Erträge aus Vermietung oder Verpachtung&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Bis zur Trennung&lt;/strong&gt; von Muttersache sind sie deren Bestandteil, &lt;strong&gt;dann selbständige&lt;/strong&gt; Sachen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die &lt;strong&gt;Elastizität des Eigentums&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Freiwillige Dispositionen &lt;/strong&gt;des Eigentümers &lt;strong&gt;beschränken &lt;/strong&gt;das &lt;strong&gt;Eigentum vorübergehend &lt;/strong&gt;(Verfügungen, beschränkt dingliches Recht), fällt die Beschränkung weg erlangt er das Eigentum wieder im vollen Umfang.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;Possessio&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Woraus besteht es im &lt;strong&gt;ius civile&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Besitz&lt;/li&gt;&lt;li&gt;ius civile: corpus + animus possidendi + iusta causa&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;corpus&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die tatsächliche Gewalt über eine Sache&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;animus possidendi&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Ist er bei Miete gegeben? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Der Wille die Sache zu behalten &lt;/li&gt;&lt;li&gt;Bei Miete nicht gegeben, da er &lt;strong&gt;permanent &lt;/strong&gt;sein muss.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;iusta&lt;/strong&gt; &lt;strong&gt;causa&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ein Erwerbsgrund, der einen Eigentumserwerb rechtfertigt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;rei vindicatio&lt;/strong&gt;? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Eigentumsklage&lt;/li&gt;&lt;li&gt;&lt;strong&gt;nicht besitzender Kläger&lt;/strong&gt; behauptet &lt;strong&gt;quiritischer Eigentümer &lt;/strong&gt;zu sein und &lt;strong&gt;begehrt&lt;/strong&gt; die &lt;strong&gt;Herausgabe &lt;/strong&gt;seiner Sache&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;actio negatoria&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Eigentumsfreiheitsklage&lt;/li&gt;&lt;li&gt;Eigentümer &lt;strong&gt;fordert&lt;/strong&gt; &lt;strong&gt;die Freigabe &lt;/strong&gt;seines Eigentums von einer &lt;strong&gt;behaupteten&lt;/strong&gt; &lt;strong&gt;Einschränkung &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Servitut&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;, &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Fruchtgenussrecht&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)  &lt;/span&gt;durch einen dritten &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;actio publiciana&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Ersitzungsbesitzer &lt;/strong&gt;dem eine Sache &lt;strong&gt;ex iusta causa&lt;/strong&gt; &lt;strong&gt;tradiert &lt;/strong&gt;wurde, und der &lt;strong&gt;nach der&lt;/strong&gt; &lt;strong&gt;Ersitzungsfrist Eigentümer &lt;/strong&gt;geworden wäre, &lt;strong&gt;klagt &lt;/strong&gt;nach Besitzverlust den (schlechter berechtigten) Besitzer auf &lt;strong&gt;Herausgabe&lt;/strong&gt; der Sache.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;strong&gt;interdicta&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Dienen zur &lt;strong&gt;Erhaltung des Besitzes bei Störung &lt;/strong&gt;sowie zur &lt;strong&gt;Wiedererlangung&lt;/strong&gt; &lt;strong&gt;des&lt;/strong&gt; &lt;strong&gt;entzogenen Besitzes&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Der &lt;strong&gt;Praetor untersagt&lt;/strong&gt; (interdictum) &lt;strong&gt;Gewaltanwendung &lt;/strong&gt;durch den Beklagten (wenn dieser &lt;strong&gt;in&lt;/strong&gt;ustus possessor ist)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;interdictum&lt;/strong&gt; &lt;strong&gt;uti possidetis&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Schützt den Besitz von &lt;strong&gt;Grundstücken&lt;/strong&gt; vor Störungen&lt;/li&gt;&lt;li&gt;Es gewinnt der &lt;strong&gt;iustus &lt;/strong&gt;possessor (verurteilt wird der &lt;strong&gt;in&lt;/strong&gt;iustus possessor)&lt;/li&gt;&lt;li&gt;Haben &lt;strong&gt;beide Besitz gestört&lt;/strong&gt;, ist der iustus possessor, dessen &lt;strong&gt;Besitz zuletzt fehlerfrei&lt;/strong&gt; war (= wer &lt;strong&gt;als erster &lt;/strong&gt;vom anderen &lt;strong&gt;gestört &lt;/strong&gt;wurde)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist&lt;strong&gt; interdictum utrubi&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Schützt den Besitz von &lt;strong&gt;beweglichen Sachen&lt;/strong&gt; vor Störungen&lt;/li&gt;&lt;li&gt;Es gewinnt, wer innerhalb &lt;strong&gt;des letzten Jahres den längeren fehlerfreien Besitz &lt;/strong&gt;hatte (Besitzzeit eines Vorbesitzers mit derivativem Erwerb von iustus possessor wird angerechnet)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die Voraussetzungen für usucapio?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;possessio&lt;/strong&gt;: fehlerfreier Besitz (kein &lt;strong&gt;vi&lt;/strong&gt;, &lt;strong&gt;clam &lt;/strong&gt;oder &lt;strong&gt;precarium&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;res habilis&lt;/strong&gt;: ersitzungsfähige Sachen (&lt;strong&gt;res mancipi &lt;/strong&gt;oder &lt;strong&gt;res nec&lt;/strong&gt; &lt;strong&gt;mancipi&lt;/strong&gt;, keine durch furtum erworbenen)&lt;/li&gt;&lt;li&gt;Erwerb durch &lt;strong&gt;traditio ex iusta causa &lt;/strong&gt;maßgeblichen Erwerbstitel&lt;/li&gt;&lt;li&gt;&lt;strong&gt;bona fides&lt;/strong&gt;: guter Glauben, dass der Vormann Eigentümer/verfügungsbefugt ist.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;tempus&lt;/strong&gt;: Ersitzungsfrist, res mobiles 1 Jahr, resimmobiles 2 Jahre.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was passiert bei (temporärem) Besitzverlust bei usucapio?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Unterbricht die Ersitzung&lt;/li&gt;&lt;li&gt;Ersitzung beginnt bei Wiedererlangen neu, wenn der Besitzer weiterhin redlich ist.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind Grunddienstbarkeiten (Realservitut/Prädialservitut)?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Berechtigen den Eigentümer des herrschenden Grundstücks zur &lt;strong&gt;beschränkten Nutzung &lt;/strong&gt;des dienenden (belasteten) Grundstücks&lt;/li&gt;&lt;li&gt;Der Eigentümer des dienenden Grundstücks muss etwas &lt;strong&gt;dulden &lt;/strong&gt;oder &lt;strong&gt;unterlassen&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;strong&gt;iura praediorum rusticorum&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Welche gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;ländliche &lt;/strong&gt;Servituten:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;iter (Fußweg)&lt;/li&gt;&lt;li&gt;via (Fahrweg)&lt;/li&gt;&lt;li&gt;actus (Viehtrieb)&lt;/li&gt;&lt;li&gt;aquae ductus (Wasserleitung)&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind &lt;strong style="background-color: rgba(0, 0, 0, 0); color: rgb(56, 190, 155);"&gt;iura praediorum urbanorum&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Welche gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Gebäudeservituten &lt;/strong&gt;in den &lt;strong&gt;Städten&lt;/strong&gt;:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Regenwasser auf Nachbargrundstück abtropfen lassen&lt;/li&gt;&lt;li&gt;Balken in eine fremde Wand einfügen&lt;/li&gt;&lt;li&gt;eigenes Gebäude auf bauliche Einrichtungen des Nachbargebäudes zu stützen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind die 7 Servitutengrundsätze?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Der Eigentümer des belasteten Grundstücks muss etwas dulden oder unterlassen, Servitut erfordert &lt;strong&gt;nie positives Tun&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Servitut ist &lt;strong&gt;schonend&lt;/strong&gt; auszuüben&lt;/li&gt;&lt;li&gt;&lt;strong&gt;utilitas&lt;/strong&gt;: Das dienende muss dem herrschenden Grundstück &lt;strong&gt;nützlich &lt;/strong&gt;sein (vorteilhaftere oder bequemere Benützung ermöglichen) &lt;/li&gt;&lt;li&gt;&lt;strong&gt;vicinitas: &lt;/strong&gt;Grundstücke müssen benachbart sein&lt;/li&gt;&lt;li&gt;&lt;strong&gt;perpetua causa&lt;/strong&gt;: Ausübung des Servituts muss zeitlich unbegrenzt möglich sein&lt;/li&gt;&lt;li&gt;Servituten können &lt;strong&gt;nicht am eigenen Grundstück &lt;/strong&gt;bestehen, sind an Eigentum am herrschenden Grundstück gebunden&lt;/li&gt;&lt;li&gt;Servituten sind &lt;strong&gt;unteilbar&lt;/strong&gt;, Belastung bedarf Mitwirkung aller Miteigentümer. &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was passiert, wenn ein für ein Servitut herrschendes Grundstück geteilt wird?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das &lt;strong&gt;Servitut &lt;/strong&gt;bezüglich dem belasteten Grundstück &lt;strong&gt;besteht zugunsten aller Teile &lt;/strong&gt;des herrschenden.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind Personendienstbarkeiten (Personalservituten)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eine &lt;strong&gt;Person &lt;/strong&gt;(also nicht der Eigentümer eines herrschenden Grundstücks) ist &lt;strong&gt;berechtigt&lt;/strong&gt;, eine fremde Sache zu gebrauchen. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Welche 3 Arten von Personalservituten gibt es?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;ususfructus&lt;/strong&gt;: &lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Recht, fremde Sachen &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;unter Wahrung&lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;der&lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Substanz &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;zu benützen und &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Früchte&lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; &lt;/span&gt;&lt;strong style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;zu ziehen.&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Kann nicht veräußert oder vererbt werden&lt;/li&gt;&lt;li&gt;&lt;strong&gt;usus&lt;/strong&gt;: das dingliche Gebrauchsrecht berechtigt zu weniger als ein ususfructus.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;habitatio&lt;/strong&gt;: dingliches Wohnrecht, Sonderform von usus&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die &lt;strong&gt;actio confessoria&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Der &lt;strong&gt;Nutzungsberechtigte klagt &lt;/strong&gt;den Eigentümer (oder andere Besitzer) um die &lt;strong&gt;Nutzung ungestört und&lt;/strong&gt; &lt;strong&gt;ohne Zustimmung &lt;/strong&gt;des Eigentümers vornehmen zu können.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Umkehr der actio negatoria&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Was ist &lt;/span&gt;&lt;strong style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;possessorischer &lt;/strong&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Schutz? &lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Schützt den Besitz &lt;/strong&gt;und folgt aus dem &lt;strong&gt;faktischen Besitz&lt;/strong&gt;. &lt;/li&gt;&lt;li&gt;Er ist &lt;strong&gt;unabhängig &lt;/strong&gt;davon ob der Besitzer ein &lt;strong&gt;Recht &lt;/strong&gt;zum Besitz hat.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Erfordert &lt;strong&gt;petitorischer &lt;/strong&gt;Schutz den Beweis des Rechts (z.B.: Eigentumsbeweis)?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja, da sich dieser Schutz, anders als der possessorische vom Recht ableitet, dieses muss also auch bewiesen werden.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;petitorischer &lt;/strong&gt;Schutz?&lt;/p&gt;&lt;p&gt;Welche Klageform bildet die Basis für den petitorischen Schutz?&lt;/p&gt;&lt;p&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Ist er stärker oder schwächer als possessorischer Schutz?&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Schützt den Besitz&lt;/strong&gt; und leitet sich aus dem &lt;strong&gt;Recht zum Besitz &lt;/strong&gt;ab.&lt;/li&gt;&lt;li&gt;Gehen zurück auf die actio publiciana&lt;/li&gt;&lt;li&gt;Verdrängen possessorische Besitzansprüche&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie wird &lt;strong&gt;possessorischer &lt;/strong&gt;Schutz durchgesetzt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Durch ein Interdikt des Praetors&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist das Sicherungseigentum im Pfandrecht?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Mittel der Kreditsicherung&lt;/li&gt;&lt;li&gt;Der creditor (Gläuber, Kreditgeber) kann sich aus einer &lt;strong&gt;bestimmten Sache vor allen anderen Gläubigern des Schuldners befriedigen&lt;/strong&gt;, wenn die Verbindlichkeit nicht erfüllt wird.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;fehlerfreier &lt;/strong&gt;Besitz?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;nec &lt;strong&gt;vi&lt;/strong&gt;: nicht mit Gewalt&lt;/li&gt;&lt;li&gt;nec &lt;strong&gt;clam&lt;/strong&gt;: nicht heimlich (gestohlen)&lt;/li&gt;&lt;li&gt;nec &lt;strong&gt;precario&lt;/strong&gt;: Nicht durch Bittleihe erlangt&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist &lt;strong&gt;actio empti&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Klage des Käufers auf herausgabe der gekauften Sache&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die &lt;strong&gt;exceptio doli&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einrede der Arglist&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die &lt;strong&gt;exceptio rei vendita et tradita&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einrede der verkauften und übergebenen Sache&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wer kann eine Sache rechtlich besser oder schlechter stellen (mit Servitut belasten bzw. über ein belastetes Grundstück herrschen lassen)?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nur der Eigentümer, z.B. Ersitzungs&lt;strong&gt;besitzer&lt;/strong&gt; kann nicht!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was bedeutet &lt;strong&gt;pleno iure dominus&lt;/strong&gt;?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Eigentümer mit vollem Recht (quiritisch + bonitarisch)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Rechtsfolge, wenn eine &lt;strong&gt;nachträgliche Unmöglichkeit &lt;/strong&gt;vom &lt;strong&gt;Schuldner herbeigeführt &lt;/strong&gt;wird (Auto vor Übergabe an Käufer an die Wand gefahren)?&lt;/p&gt;&lt;p&gt;Wie nennt man diese nachträgliche Unmöglichkeit noch?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Der Schuldner haftet: Schadenersatz!&lt;/li&gt;&lt;li&gt;Eine vom Schuldner zu &lt;strong&gt;vertretende &lt;/strong&gt;nachträgliche Unmöglichkeit&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist die Rechtsfolge, wenn eine &lt;strong&gt;nachträgliche Unmöglichkeit&lt;/strong&gt; zufällig herbeigeführt wird?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Der Schuldner wird frei von der Vertragspflicht&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was ist Rechtsbesitz?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Possessio an einem Recht, das einer &lt;strong&gt;dauernden Ausübung möglich&lt;/strong&gt; ist, wie eine Servitut.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kann ein Scheinservitutsberechtigter Rechtsbesitz an der Servitut haben? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja, wenn er die Servitut &lt;strong&gt;ohne Eingriff&lt;/strong&gt; erlangt hat:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;nec vi, nec clam, nec precario&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Wichtig ist also die gutgläubigkeit!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kann &lt;strong&gt;possessorischer &lt;/strong&gt;Schutz auch für &lt;strong&gt;Rechtsbesitz &lt;/strong&gt;geltend gemacht werden?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja - zum Beispiel für eine Servitut&lt;/p&gt;</t>
+    <t>&lt;p&gt;Wofür kann die &lt;strong&gt;actio venditi &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;neben der Forderung der Zahlung des Kaufpreises &lt;/span&gt;&lt;strong&gt;noch eingesetzt &lt;/strong&gt;werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Zur Durchsetzung von Nebenabreden&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie kann ein Grundstück für einen Verkauf &lt;strong&gt;übergeben&lt;/strong&gt; werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;z.B.: indem man die Grenzen zeigt &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man das bonitarische Eigentum, wenn der Kaufvertrag &lt;strong&gt;auflösend bedingt&lt;/strong&gt; ist (lex commissoria) &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;auflösend bedingtes bonitarisches &lt;strong&gt;Zwischeneigentum&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann eine Manzipation bedingt sein? (z.B.: Lex commissoria)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nein, Manzipation ist &lt;strong&gt;bedingungsfeindlich&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Manzipation ist vor Zeugen und soll direkt Eigentum übertragen &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist stärker? bloßes &lt;strong&gt;ziviles &lt;/strong&gt;Eigentum, oder bloßes &lt;strong&gt;bonitarisches &lt;/strong&gt;Eigentum?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Immer das &lt;strong&gt;bonitarische &lt;/strong&gt;Eigentum&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Warum gibt es Ersitzung (Usucapio)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Für Konflikt zwischen &lt;strong&gt;Schutz von Eigentum&lt;/strong&gt; und &lt;strong&gt;Schutz der Funktion des redlichen Rechtsverkehrs&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;z.B.: &lt;strong&gt;Verkäufer &lt;/strong&gt;verkauft &lt;strong&gt;Sache&lt;/strong&gt;, die einem &lt;strong&gt;anderen gehört&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Ist ein Kompromiss: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Für eine &lt;strong&gt;gewisse Frist &lt;/strong&gt;(res mobiles 1 Jahr, res immobiles 2 Jahre) wird &lt;strong&gt;Eigentum geschützt&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Dann &lt;/strong&gt;die &lt;strong&gt;Funktion des Rechtsverkehrs&lt;/strong&gt; -&amp;gt; Eigentum wechselt&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man einen Besitzer der nur Corpus hat (also nicht einmal Ersitzungsbesitzer ist)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Eigenbesitzer&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie nennt man es, wenn eine falsche Sache geliefert wird?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Aliud-Lieferung&lt;/p&gt;&lt;p&gt;(="Anderes"-Lieferung)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mit welcher Klage kann eine nicht geschuldete Leistung zurückverlangt werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Condictio Indebiti &lt;/p&gt;&lt;p&gt;(Condictio weil Rückforderung) &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was passiert wenn der Beklagte einer &lt;strong&gt;Condictio&lt;/strong&gt; &lt;strong&gt;Indebiti &lt;/strong&gt;die Sache nicht mehr zurückleisten kann (weil er sie nicht mehr hat und nicht mehr bekommen kann)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Er muss Wertersatz leisten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie werden Rückforderungsklagen genannt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Condictio &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Womit kann der Verkaufserlös einer nicht geschuldeten Sache herausverlangt werden?&lt;/p&gt;&lt;p&gt;Auf welchem Rechtsgebiet basiert dies?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Condictio pretii&lt;/p&gt;&lt;p&gt;Bereicherungsrecht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;Sachenrechtliche&lt;/strong&gt;/&lt;strong&gt;vertragliche Folge&lt;/strong&gt;, wenn der echte Eigentümer den &lt;strong&gt;Verkaufserlös &lt;/strong&gt;einer nicht geschuldeten Sache, &lt;strong&gt;statt &lt;/strong&gt;der &lt;strong&gt;Sache &lt;/strong&gt;selbst, herausverlangt? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der Eigentümer erklärt sich damit mit dem Verkauf der Sache durch den Empfänger (der nicht geschuldeten Sache) einverstanden. -&amp;gt; ratihabitio (&lt;strong&gt;nachträgliche&lt;/strong&gt; &lt;strong&gt;Genehmigung&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;Der Empfänger wird damit berechtigter Vormann für seinen Käufer&lt;/li&gt;&lt;li&gt;Der Käufer vom Empfänger, wird damit Eigentümer der Sache, abgeleitet vom Empfänger (der es wiederum über die Genehmigung vom Eigentümer ableitet)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Sachenrechtliche Position eines Prekaristen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Er hat eine Sache als &lt;strong&gt;Bittleihe&lt;/strong&gt; erhalten&lt;/li&gt;&lt;li&gt;Er ist &lt;strong&gt;Rückstellungswillig &lt;/strong&gt;(gibt sie auf Anfrage zurück)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Hat &lt;strong&gt;corpus&lt;/strong&gt;, aber &lt;strong&gt;kein Animus&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Also: er ist &lt;strong&gt;Detentor&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Sachenrechtliche Position eines Precario (Bitt&lt;strong&gt;ver&lt;/strong&gt;leihers)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Hat &lt;strong&gt;Animus &lt;/strong&gt;Possidendi (bis die Bittleihe z.B.: in Verkauf übergeht bei voller Bezahlung)&lt;/li&gt;&lt;li&gt;Hat corpus &lt;strong&gt;mittelbar&lt;/strong&gt; weil er die Sache &lt;strong&gt;jederzeit zurückverlangen &lt;/strong&gt;kann.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Also: er ist &lt;strong&gt;Eigentümer &lt;/strong&gt;und &lt;strong&gt;mittelbarer&lt;/strong&gt; Besitzer&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Vorteil der Bittleihe über die Herausforderung mittels Rei Vindicatio?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Es muss &lt;strong&gt;nur &lt;/strong&gt;die &lt;strong&gt;Bittleihe nachgewiesen &lt;/strong&gt;werden, &lt;strong&gt;bei Rei Vindication &lt;/strong&gt;muss der &lt;strong&gt;eigene Eigentumserwerb&lt;/strong&gt; nachgewiesen werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird die Rückforderung einer Bittleihe durchgesetzt? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Interdictum de Precario&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ist eine schwebende (aufschiebende) Bedingung eine Iusta Causa (z.B.: Für Ersitzung)?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, erst wenn die Bedingung nicht mehr schwebt &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was wird für originären Fruchterwerb benötigt?&lt;/p&gt;&lt;p&gt;Was bedeutet dies für aufschiebend bedingte Kaufsachen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Bona fides&lt;/strong&gt;, dass man eine &lt;strong&gt;Causa &lt;/strong&gt;für die Sache hat, von der man Früchte zieht.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Bona fides nicht vorhanden &lt;/strong&gt;- im Vertrag steht ja, dass die Causa erst mit Eintritt der Bedingung entsteht&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Ist eine aufhebende Bedingung eine Iusta Causa (z.B.: Für Ersitzung)?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja, da die Causa sofort entsteht, und nur nachträglich aufgehoben werden kann&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wer ist beim Doppelverkauf vom selben Verkäufer stärker gestellt, der der die Sache zuerst gekauft hat, oder der dem Sie zuerst übergeben wurde?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Wie ist die Situation, wenn der &lt;strong&gt;Verkäufer nur Ersitzungsbesitzer&lt;/strong&gt; ist?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Wie ist die Situation, wenn &lt;strong&gt;zwei verschiedene&lt;/strong&gt; &lt;strong&gt;Ersitzungsbesitzer (Nichteigentümer) &lt;em&gt;verkaufen&lt;/em&gt;&lt;/strong&gt;? &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Digeste: D. 6,2,9,4 (Ulp. 16 ad ed.) (Superskript, S 15)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Stärker ist: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Der dem sie &lt;strong&gt;zuerst Übergeben &lt;/strong&gt;wurde, denn dieser hat per &lt;strong&gt;Traditio Eigentum &lt;/strong&gt;erlangt&lt;/li&gt;&lt;li&gt;Der &lt;strong&gt;erste Käufer &lt;/strong&gt;hat nur einen &lt;strong&gt;schwachen&lt;/strong&gt; &lt;strong&gt;schuldrechtlichen &lt;/strong&gt;Anspruch&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Verkäufer ist EB:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Rechtslücke &lt;/strong&gt;- &lt;strong&gt;wer &lt;/strong&gt;soll die &lt;strong&gt;Actio Publiciana &lt;/strong&gt;haben?&lt;/li&gt;&lt;li&gt;-&amp;gt; &lt;strong&gt;Analogie &lt;/strong&gt;mit &lt;strong&gt;Verkäufer als&lt;/strong&gt; &lt;strong&gt;Eigentümer &lt;/strong&gt;-&amp;gt; der dem Sie &lt;strong&gt;zuerst übergeben &lt;/strong&gt;wurde, ist stärker.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Zwei verschiedene EB Verkäufer?&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Analogie&lt;/strong&gt; kann &lt;strong&gt;nicht &lt;/strong&gt;angewendet werden, weil zwei &lt;em&gt;verschiedene &lt;/em&gt;Nichteigentümer verkaufen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Actio Publiciana nicht &lt;/strong&gt;anwendbar&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Beide Käufer sind EB&lt;/strong&gt;, da sie von EB gekauft haben&lt;/li&gt;&lt;li&gt;Aber: &lt;strong&gt;Besitzinterdikt &lt;/strong&gt;wer im letzten Jahr&lt;strong&gt; länger fehlerfrei besessen&lt;/strong&gt; hat&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Auswirkung hat das Ehegattenschenkungsverbot auf die Schenkung eines Grundstücks?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Zerstört die Schenkungscausa&lt;/li&gt;&lt;li&gt;Zerstört das Verfügungsgeschäft&lt;/li&gt;&lt;li&gt;-&amp;gt; derivativer Eigentumswerwerb scheitert, Eigentümer ändert sich nicht&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das Retentionsrecht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wird z.B.: beim Bau auf Fremden Grund die &lt;em&gt;rei vindicatio&lt;/em&gt; gegen den Bauherren eingesetzt, so hat er die &lt;strong&gt;exceptio doli &lt;/strong&gt;als Retentionsrecht (&lt;strong&gt;Zurückhalterecht&lt;/strong&gt;), &lt;strong&gt;bis der Eigentümer &lt;/strong&gt;einen &lt;strong&gt;Bereicherungsausgleich &lt;/strong&gt;anbietet.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Ausgleich&lt;/strong&gt; muss die &lt;strong&gt;Wertsteigerung &lt;/strong&gt;des Grundstücks umfassen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hat der Käufer eines auf fremden Grund gebauten Hauses ein Retentionsrecht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, da er keinen Aufwand getätigt hat.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 3 Voraussetzungen für Pfand?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Bestehen einer &lt;strong&gt;Forderung &lt;/strong&gt;(Akzessoritätsprinzip)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Pfandvertrag &lt;/strong&gt;(conventio pignoris)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;in bonis &lt;/strong&gt;-&amp;gt; &lt;em&gt;Verpfänder &lt;/em&gt;muss mindestens bonitarischer Eigentümer sein&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Von wem kann ein Pfandgläubiger die Pfandsache herausverlangen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Von jedem beliebigen dritten -&amp;gt; Pfandrecht ist ein dingliches Recht&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mit welcher Klage kann der Pfandgläubiger die Sache herausverlangen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;dingliche Pfandklage - &lt;em&gt;actio pigneraticia in rem&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Art von Geschäft ist die Verpfändung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein &lt;strong&gt;Verfügungsgeschäft&lt;/strong&gt; -&amp;gt; da das &lt;strong&gt;Eigentum&lt;/strong&gt; &lt;strong&gt;betroffen&lt;/strong&gt; ist&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann ein Ersitzungsbesitzer ein Pfandrecht begründen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, nur der Eigentümer kann es belasten&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Womit kann der Pfandgläubiger ein Ersatzpfand verlangen, wenn z.B.: das Pfand ungültig war?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Klage aus dem noch nicht erfüllten Pfandvertrag: &lt;strong&gt;actio pigneraticia &lt;/strong&gt;in &lt;em&gt;personam&lt;/em&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -958,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B149"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -1708,6 +2044,454 @@
         <v>185</v>
       </c>
     </row>
+    <row r="94" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/flashcards/Memcode - VO Römisches Sachenrecht I (JKU, Austria).xlsx
+++ b/flashcards/Memcode - VO Römisches Sachenrecht I (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>Question</t>
   </si>
@@ -25,6 +25,60 @@
     <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;gesamtes Vermögen&lt;/strong&gt; &lt;strong&gt;verpfändet&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Besondere Probleme bei &lt;em&gt;wechselndem Vermögensbestand&lt;/em&gt; (z.B. &lt;strong&gt;Warenlager&lt;/strong&gt;) &lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Vorausverpfändung&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Verfügungsermächtigung zur lastenfreien Veräußerung&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
+    <t>&lt;p&gt;Wie erlangt ein Käufer bei der Pfandverwertung Eigentum?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der &lt;strong&gt;Pfandgläubiger &lt;/strong&gt;ist &lt;strong&gt;Nichteigentümer &lt;/strong&gt;aber &lt;strong&gt;berechtigter Vormann&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;er hat eine &lt;em&gt;Verfügungsermächtigung &lt;/em&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Veräußerungsbefugnis &lt;/strong&gt;= &lt;em&gt;ius vendendi&lt;/em&gt;&lt;/li&gt;&lt;li&gt;Im &lt;strong&gt;Pfandvertrag&lt;/strong&gt; steckt also eine &lt;strong&gt;Verfügungsermächtigung&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie kann bei einem Fall festgestellt werden (wenn nicht direkt genannt) ob es sich um&lt;strong&gt; res mancip&lt;/strong&gt;i oder &lt;strong&gt;res nec mancipi&lt;/strong&gt; handelt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Anhand der "&lt;em&gt;rei vindicatio&lt;/em&gt;" ("wenn ich vindiziere ... ")&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Hat &lt;/strong&gt;der &lt;strong&gt;V&lt;/strong&gt; im Fall die &lt;em&gt;rei vindicatio&lt;/em&gt;, &lt;strong&gt;obwohl &lt;/strong&gt;die Sache &lt;strong&gt;verkauft &lt;/strong&gt;(und übergeben) wurde, &lt;strong&gt;dann &lt;/strong&gt;muss eine &lt;em&gt;res mancipi &lt;/em&gt;vorliegen&lt;/li&gt;&lt;li&gt;In dem Fall hat die &lt;strong&gt;mancipatio nicht stattgefunden&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;z.B.: Weil von einem &lt;strong&gt;Verfügungsermächtigten verkauft &lt;/strong&gt;wurde, der &lt;strong&gt;bloß bonitarisches&lt;/strong&gt; &lt;strong&gt;Eigentum &lt;/strong&gt;verschafft&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gibt es Furtum an Grundstücken?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, Grundstücke sind immer res habilis&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;Verkäufer verkauft und übergibt ein fremdes Grundstück&lt;/li&gt;&lt;li&gt;Eigentümer beerbt den Verkäufer&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Eigentümer kann sein Eigentum nun nicht mehr vom Käufer zurückverlangen. Warum?&lt;/p&gt;&lt;p&gt;Was hätte E tun müssen um die rei vindicatio zu behalten?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Verkäufer &lt;/strong&gt;war anfangs &lt;strong&gt;maximal EB&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Käufer &lt;/strong&gt;wird durch&lt;strong&gt; traditio EB&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;em&gt;Eigentümer beerbt &lt;/em&gt;Verkäufer&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Gesamtrechtsnachfolge&lt;/strong&gt;!&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;E erbt den Vertrag&lt;/strong&gt; und &lt;strong&gt;schuldet&lt;/strong&gt; dem K &lt;strong&gt;ungestörten Besitz&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;K bekommt also die &lt;em&gt;exceptio venditae et traditae&lt;/em&gt;&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Achtung: Ob hier eine Heilung durch den Erbgang vorliegt ist Ansichtssache -&amp;gt; aber der Vertrag ist ein garantierter hinderungsgrund.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Was hätte E tun müssen für rei vindicatio?&lt;/em&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Erbschaft nicht antreten&lt;/strong&gt;!&lt;/li&gt;&lt;li&gt;dann wäre er &lt;strong&gt;pleno iuris dominus &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;K&lt;/strong&gt; hätte dann &lt;strong&gt;keine Einrede aus dem Vertrag&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;B ist bonitarischer Eigentümer eines Sklaven. &lt;/p&gt;&lt;p&gt;Der Sklave wurde gestohlen (von Dieb D) und vermietet (An Mieter M)&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Was kann B gegenüber D und M &lt;strong&gt;womit&lt;/strong&gt; durchsetzen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;B ist bonitarischer Eigentümer -&amp;gt; also &lt;strong&gt;keine rei vindicatio&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;em&gt;actio publiciana &lt;/em&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gegen &lt;strong&gt;M auf Herausgabe &lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;gegen&lt;strong&gt; D auf Mieteinnahmen&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-2"&gt;&lt;strong&gt;solange&lt;/strong&gt; sie &lt;strong&gt;noch abgrenzbar &lt;/strong&gt;/ identifzierbar sind&lt;/li&gt;&lt;li&gt;&lt;em&gt;alternativ&lt;/em&gt;:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;condictio furtiva &lt;/strong&gt;gegen D auf &lt;strong&gt;Mieteinnahmen&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;M &lt;strong&gt;mietet &lt;/strong&gt;einen &lt;strong&gt;gestohlenen&lt;/strong&gt; &lt;strong&gt;Sklaven&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Was ist die &lt;strong&gt;sachenrechtliche Position &lt;/strong&gt;des M?&lt;/p&gt;&lt;p&gt;Ist der &lt;strong&gt;Mietvertrag gültig&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;M &lt;/strong&gt;wird &lt;strong&gt;Detentor &lt;/strong&gt;(wie ein normaler Mieter -&amp;gt; er ist rückgabewillig)&lt;/li&gt;&lt;li&gt;der &lt;strong&gt;Mietvertrag &lt;/strong&gt;ist &lt;strong&gt;gültig&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;ein &lt;strong&gt;Verpflichtungsgeschäft kann&lt;/strong&gt; auch vom &lt;strong&gt;Nichtberechtigten geschlossen &lt;/strong&gt;werden&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Sklavenhändler &lt;strong&gt;verkauft &lt;/strong&gt;einen &lt;strong&gt;zugelaufenen &lt;/strong&gt;Sklaven.&lt;/p&gt;&lt;p&gt;Was ist die &lt;strong&gt;sachenrechtliche&lt;/strong&gt; Position des &lt;strong&gt;Käufers&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Er ist zumindest &lt;strong&gt;Eigenbesitzer&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Kann er auch &lt;strong&gt;Ersitzungsbesitzer &lt;/strong&gt;sein?&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Er ist &lt;em&gt;redlich &lt;/em&gt;und hat eine&lt;em&gt; iusta causa&lt;/em&gt;, sowie &lt;em&gt;possessio&lt;/em&gt;&lt;/li&gt;&lt;li&gt;Kommt auf den &lt;strong&gt;Verkäufer an&lt;/strong&gt;!&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Verkäufer &lt;strong&gt;weis&lt;/strong&gt;, &lt;strong&gt;dass &lt;/strong&gt;es &lt;strong&gt;fremder &lt;/strong&gt;Sklave ist:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;em&gt;wissentlicher Verkauf einer fremden Sache&lt;/em&gt;: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;-&amp;gt; &lt;strong&gt;res furtiva&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;können &lt;strong&gt;nicht ersessen &lt;/strong&gt;werden!&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Verkäufer &lt;strong&gt;glaubt, es ist sein&lt;/strong&gt; Sklave:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;em&gt;Ersitzung möglich&lt;/em&gt;, weil kein furtum&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;-&amp;gt; Maximal Ersitzungsbesitzer&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Sklave &lt;strong&gt;verirrt sich &lt;/strong&gt;und kommt in die Hand eines &lt;strong&gt;Dritten&lt;/strong&gt;.&lt;/p&gt;&lt;p&gt;Welche &lt;strong&gt;Sachenrechtliche &lt;/strong&gt;Position hat der &lt;strong&gt;Dritte&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Er ist &lt;em&gt;Eigenbesitzer&lt;/em&gt;&lt;/li&gt;&lt;li&gt;Weil: &lt;strong&gt;Keine Voraussetzungen &lt;/strong&gt;für &lt;strong&gt;Ersitzung&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;keine&lt;em&gt; &lt;/em&gt;&lt;strong&gt;&lt;em&gt;Iusta Causa&lt;/em&gt;&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Falls er &lt;strong&gt;weiß&lt;/strong&gt;, dass es &lt;strong&gt;nicht sein Sklave &lt;/strong&gt;ist kommt noch dazu: &lt;em&gt;keine Redlichkeit&lt;/em&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein Besitzkonstitut?&lt;/p&gt;&lt;p&gt;Was ist die lat. Bezeichnung? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;em&gt;constitutium possessorium&lt;/em&gt;&lt;/li&gt;&lt;li&gt;Der &lt;strong&gt;Besitz &lt;/strong&gt;bloß &lt;strong&gt;durch Verträge &lt;/strong&gt;begründet (&lt;strong&gt;konstituiert&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;A &lt;strong&gt;verkauft Sache &lt;/strong&gt;an B, &lt;strong&gt;behält &lt;/strong&gt;sie aber als &lt;strong&gt;Entlehner &lt;/strong&gt;oder &lt;strong&gt;Mieter &lt;/strong&gt;weiter.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;A&lt;/strong&gt; wird vom &lt;strong&gt;Besitzer zum Detentor&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;B erwirbt Besitz&lt;/strong&gt; "solo animo" (durch bloße Willensbetätigung, ohne Übergabe)&lt;/li&gt;&lt;li&gt;z.B.:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;E &lt;strong&gt;verkauft Wohnung &lt;/strong&gt;an K und &lt;strong&gt;wohnt &lt;/strong&gt;dann &lt;strong&gt;als Mieter&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;K&lt;/strong&gt; ist dann &lt;strong&gt;mittelbarer&lt;/strong&gt; &lt;strong&gt;Besitzer&lt;/strong&gt; durch den Vertrag -&amp;gt; &lt;strong&gt;Besitzkonstitut&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Ist mancipatio auch ohne causa wirksam?&lt;/p&gt;</t>
   </si>
   <si>
@@ -49,36 +103,36 @@
     <t>&lt;ul&gt;&lt;li&gt;Mieter: &lt;strong&gt;Detentor&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Vermieter: &lt;strong&gt;Mittelbarer&lt;/strong&gt; &lt;strong&gt;Besitzer&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
+    <t>&lt;ol&gt;&lt;li&gt;EB verpfänded vermeintlich eigene Sache an G als besitzloses Pfand&lt;/li&gt;&lt;li&gt;EB verkauft und übergibt die Sache an K&lt;/li&gt;&lt;li&gt;Wahrer Eigentümer E stirbt und wird von EB beerbt.&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Was ist die Rechtslage?&lt;/p&gt;&lt;p&gt;Dringt G mit action pigneraticia in rem gegen K durch?&lt;/p&gt;&lt;p&gt;Was kann K tun? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;em&gt;Verpfändung&lt;/em&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Pfandvertrag &lt;/strong&gt;zwischen EB und G ist &lt;strong&gt;gültig&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Verfügungsgeschäft scheitert &lt;/strong&gt;- &lt;em&gt;nicht in bonis&lt;/em&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Sache bleibt &lt;strong&gt;unbelastet&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;em&gt;Verkauf&lt;/em&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;KV gültig&lt;/strong&gt;, &lt;strong&gt;Verfügungsgeschäft scheitert &lt;/strong&gt;(mangels berechtigtem Vormann)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;K&lt;/strong&gt; wird &lt;strong&gt;Ersitzungsbesitzer &lt;/strong&gt;der &lt;strong&gt;lastenfreien Sache&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;em&gt;Erbgang&lt;/em&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;EB&lt;/strong&gt; wird &lt;strong&gt;Eigentümer&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Verpfändung &lt;/strong&gt;EB -&amp;gt; G &lt;strong&gt;heilt &lt;/strong&gt;-&amp;gt; &lt;strong&gt;Sache &lt;/strong&gt;ist nun &lt;strong&gt;belastet&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Verfügung &lt;/strong&gt;EB -&amp;gt; K &lt;strong&gt;heilt&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;K&lt;/strong&gt; ist &lt;strong&gt;Eigentümer&lt;/strong&gt;, Sache ist aber &lt;strong&gt;pfandbelastet&lt;/strong&gt;&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;G dringt&lt;/strong&gt; mit&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; &lt;/span&gt;&lt;em style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;action pigneraticia in rem&lt;/em&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt; &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;durch&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;, weil das Pfandrecht als dingliches Recht besteht&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;K unterliegt &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;der &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Eviktion&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;, er wird durch die berechtigte Klage eines Dritten gestört.&lt;/span&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Er kann gegen EB &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Eviktionsregress &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;nehmen.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was kann der Treugeber tun, wenn seine Sache vom Treuhänder verkauft wurde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;kein Anspruch &lt;/strong&gt;gegen &lt;strong&gt;K&lt;/strong&gt;, dieser ist &lt;strong&gt;Eigentümer&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Sehr &lt;strong&gt;gefährlich &lt;/strong&gt;für S -&amp;gt; hat nur &lt;strong&gt;Schuldrechtlichen Anspruch &lt;/strong&gt;&lt;em&gt;gegen G&lt;/em&gt;&lt;strong&gt; aus dem Treuhandvertrag&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie kann der Treugeber (Schuldner) seine Sache vom Treuhänder zurückerhalten nach Tilgung?&lt;/p&gt;&lt;p&gt;Hat er eine r&lt;strong&gt;ei vindicatio&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was kann er tun, wenn der G die Sache nicht mehr hat?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;actio fiduciae &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;keine rei vindicatio&lt;/strong&gt;! G ist durch &lt;strong&gt;mancipatio &lt;/strong&gt;auch ziviler Eigentümer!&lt;/li&gt;&lt;li&gt;G hat Sache nicht mehr: &lt;strong&gt;Schadenersatz klagen&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ist das Eigentum eines Träuhänders (Gläubiger) bei fiducia beschränkt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ja,durch die Verpflichtung zur Rückübereignung nach Tilgung der Schuld.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Was ist die Fiducia?&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Sicherungsübereignung &lt;/strong&gt;(Treuhandschaft)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gläubiger &lt;/strong&gt;erhält &lt;strong&gt;Eigentum &lt;/strong&gt;am Sicherungsobjekt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bei &lt;strong&gt;res mancipi &lt;/strong&gt;-&amp;gt; &lt;strong&gt;mancipatio &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Bei &lt;strong&gt;Tilgung&lt;/strong&gt;: G muss Sache &lt;strong&gt;rückübereignen&lt;/strong&gt; -&amp;gt;&lt;em&gt; nicht automatisch!&lt;/em&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bei res mancipi -&amp;gt; &lt;strong&gt;remancipatio&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was ist ein Besitzkonstitut?&lt;/p&gt;&lt;p&gt;Was ist die lat. Bezeichnung? &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;em&gt;constitutium possessorium&lt;/em&gt;&lt;/li&gt;&lt;li&gt;Der &lt;strong&gt;Besitz &lt;/strong&gt;bloß &lt;strong&gt;durch Verträge &lt;/strong&gt;begründet (&lt;strong&gt;konstituiert&lt;/strong&gt;)&lt;/li&gt;&lt;li&gt;A &lt;strong&gt;verkauft Sache &lt;/strong&gt;an B, &lt;strong&gt;behält &lt;/strong&gt;sie aber als &lt;strong&gt;Entlehner &lt;/strong&gt;oder &lt;strong&gt;Mieter &lt;/strong&gt;weiter.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;A&lt;/strong&gt; wird vom &lt;strong&gt;Besitzer zum Detentor&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;B erwirbt Besitz&lt;/strong&gt; "solo animo" (durch bloße Willensbetätigung, ohne Übergabe)&lt;/li&gt;&lt;li&gt;z.B.:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;E &lt;strong&gt;verkauft Wohnung &lt;/strong&gt;an K und &lt;strong&gt;wohnt &lt;/strong&gt;dann &lt;strong&gt;als Mieter&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;K&lt;/strong&gt; ist dann &lt;strong&gt;mittelbarer&lt;/strong&gt; &lt;strong&gt;Besitzer&lt;/strong&gt; durch den Vertrag -&amp;gt; &lt;strong&gt;Besitzkonstitut&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was kann der Treugeber tun, wenn seine Sache vom Treuhänder verkauft wurde?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;kein Anspruch &lt;/strong&gt;gegen &lt;strong&gt;K&lt;/strong&gt;, dieser ist &lt;strong&gt;Eigentümer&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Sehr &lt;strong&gt;gefährlich &lt;/strong&gt;für S -&amp;gt; hat nur &lt;strong&gt;Schuldrechtlichen Anspruch &lt;/strong&gt;&lt;em&gt;gegen G&lt;/em&gt;&lt;strong&gt; aus dem Treuhandvertrag&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wie kann der Treugeber (Schuldner) seine Sache vom Treuhänder zurückerhalten nach Tilgung?&lt;/p&gt;&lt;p&gt;Hat er eine r&lt;strong&gt;ei vindicatio&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was kann er tun, wenn der G die Sache nicht mehr hat?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;actio fiduciae &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;keine rei vindicatio&lt;/strong&gt;! G ist durch &lt;strong&gt;mancipatio &lt;/strong&gt;auch ziviler Eigentümer!&lt;/li&gt;&lt;li&gt;G hat Sache nicht mehr: &lt;strong&gt;Schadenersatz klagen&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ist das Eigentum eines Träuhänders (Gläubiger) bei fiducia beschränkt?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ja,durch die Verpflichtung zur Rückübereignung nach Tilgung der Schuld.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Wer ist Eigentümer des Pfands bei Besitz- und bei Besitzlosem Pfand?&lt;/p&gt;</t>
   </si>
   <si>
@@ -127,10 +181,10 @@
     <t>&lt;ul&gt;&lt;li&gt;G gegen alle (auch Eigentümer): Herausgabe&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Was ist die Folge, wenn ein Eigentümer oder Besitzer auf einem pfandbelasteten Grund baut?&lt;/p&gt;&lt;p&gt;Welche &lt;strong&gt;Voraussetzung&lt;/strong&gt; hat ein &lt;strong&gt;Besitzer &lt;/strong&gt;für die Durchsetzung der Folge?&lt;/p&gt;&lt;p&gt;Ist die Situation anders, wenn der Grund beim Verpfänden schon bebaut war, das Gebäude aber abbrannte?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;superficiese solo cedit&lt;/strong&gt;: &lt;strong&gt;Haus &lt;/strong&gt;fällt in &lt;strong&gt;Eigentum &lt;/strong&gt;und &lt;strong&gt;auch &lt;/strong&gt;vom &lt;strong&gt;Pfandrecht &lt;/strong&gt;betroffen&lt;/li&gt;&lt;li&gt;Aber: &lt;strong&gt;Wert &lt;/strong&gt;der &lt;strong&gt;Pfandsicherheit gestiegen&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Retentionsrecht&lt;/strong&gt;/&lt;strong&gt;exceptio doli &lt;/strong&gt;gegen Pfandgläubiger -&amp;gt; über &lt;strong&gt;Summe &lt;/strong&gt;der &lt;strong&gt;Wertsteigerung&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Voraussetzung für Besitzer: &lt;strong&gt;gutgläubiger &lt;/strong&gt;Besitz&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gebäude abgebrannt&lt;/strong&gt;: &lt;strong&gt;Keine Änderung&lt;/strong&gt;. Durch Abbrennen Wertverringerung der Pfandsicherheit, &lt;strong&gt;Retentionsrecht von Steigerung &lt;em&gt;seit abbrennen&lt;/em&gt;. &lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Was ist die Folge, wenn ein Eigentümer oder Besitzer auf einem pfandbelasteten Grund baut (nachdem er dieses Kauft)?&lt;/p&gt;&lt;p&gt;Welche &lt;strong&gt;Voraussetzung&lt;/strong&gt; gibt es für die Durchsetzung der Folge?&lt;/p&gt;&lt;p&gt;Ist die Situation anders, wenn der Grund beim Verpfänden schon bebaut war, das Gebäude aber abbrannte?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;superficiese solo cedit&lt;/strong&gt;: &lt;strong&gt;Haus &lt;/strong&gt;fällt in &lt;strong&gt;Eigentum &lt;/strong&gt;und &lt;strong&gt;auch &lt;/strong&gt;vom &lt;strong&gt;Pfandrecht &lt;/strong&gt;betroffen&lt;/li&gt;&lt;li&gt;Aber: &lt;strong&gt;Wert &lt;/strong&gt;der &lt;strong&gt;Pfandsicherheit gestiegen&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Retentionsrecht&lt;/strong&gt;/&lt;strong&gt;exceptio doli &lt;/strong&gt;gegen Pfandgläubiger -&amp;gt; über &lt;strong&gt;Summe &lt;/strong&gt;der &lt;strong&gt;Wertsteigerung&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Voraussetzung: &lt;strong&gt;gutgläubiger &lt;/strong&gt;Besitz&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Eigentümer/Besitzer darf &lt;strong&gt;nichts vom Pfand gewusst &lt;/strong&gt;haben&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Gebäude abgebrannt&lt;/strong&gt;: &lt;strong&gt;Keine Änderung&lt;/strong&gt;. Durch Abbrennen Wertverringerung der Pfandsicherheit, &lt;strong&gt;Retentionsrecht von Steigerung &lt;em&gt;seit abbrennen&lt;/em&gt;. &lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Was ist die Folge wenn S eine Sache verpfändet die nicht in seinem Eigentum ist?&lt;/p&gt;</t>
@@ -1294,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B158"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -2492,6 +2546,78 @@
         <v>297</v>
       </c>
     </row>
+    <row r="150" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
